--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1000000/Output_9_23.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1000000/Output_9_23.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1041876.146415308</v>
+        <v>1039579.28259982</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>5648925.111355035</v>
+        <v>5648925.111355036</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673436</v>
+        <v>603248.4937673352</v>
       </c>
     </row>
     <row r="9">
@@ -659,7 +659,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -668,16 +668,16 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>241.0142888776591</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>220.8837963815378</v>
+        <v>61.50937191949606</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>11.94928935461252</v>
@@ -701,22 +701,22 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -738,19 +738,19 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>29.83623182992858</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -783,28 +783,28 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V3" t="n">
-        <v>141.3960895962228</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
         <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -814,64 +814,64 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>0</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0</v>
+      </c>
+      <c r="O4" t="n">
+        <v>0</v>
+      </c>
+      <c r="P4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>0</v>
+      </c>
+      <c r="R4" t="n">
+        <v>0</v>
+      </c>
+      <c r="S4" t="n">
+        <v>0</v>
+      </c>
+      <c r="T4" t="n">
+        <v>0</v>
+      </c>
+      <c r="U4" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="C4" t="n">
-        <v>0</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0</v>
-      </c>
-      <c r="E4" t="n">
-        <v>0</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0</v>
-      </c>
-      <c r="L4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M4" t="n">
-        <v>0</v>
-      </c>
-      <c r="N4" t="n">
-        <v>0</v>
-      </c>
-      <c r="O4" t="n">
-        <v>0</v>
-      </c>
-      <c r="P4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>0</v>
-      </c>
-      <c r="R4" t="n">
-        <v>0</v>
-      </c>
-      <c r="S4" t="n">
-        <v>0</v>
-      </c>
-      <c r="T4" t="n">
-        <v>0</v>
-      </c>
-      <c r="U4" t="n">
-        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -902,19 +902,19 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F5" t="n">
-        <v>58.39471844666277</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>241.0142888776591</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="H5" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J5" t="n">
         <v>11.94928935461252</v>
@@ -941,16 +941,16 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R5" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>223.0958495641314</v>
+        <v>198.7050131246913</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -972,31 +972,31 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>28.14430250122429</v>
       </c>
       <c r="I6" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -1023,10 +1023,10 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T6" t="n">
-        <v>108.3805147942542</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
         <v>225.9413820809748</v>
@@ -1038,10 +1038,10 @@
         <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -1078,7 +1078,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -1093,7 +1093,7 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -1108,7 +1108,7 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1117,7 +1117,7 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>108.1960350243787</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1133,7 +1133,7 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>227.4128599785995</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -1145,7 +1145,7 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>33.60023339142367</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1154,7 +1154,7 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -1178,10 +1178,10 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R8" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1196,10 +1196,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="X8" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1209,7 +1209,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>110.5627721675628</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
@@ -1218,7 +1218,7 @@
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
@@ -1227,13 +1227,13 @@
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -1263,19 +1263,19 @@
         <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U9" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V9" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>157.8312622797873</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X9" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
         <v>0</v>
@@ -1315,7 +1315,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -1330,7 +1330,7 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -1351,10 +1351,10 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="X10" t="n">
-        <v>108.1960350243787</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1376,7 +1376,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722607</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
@@ -1528,25 +1528,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>8.477975734669998</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>146.4910108745831</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>102.2242758664309</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1582,16 +1582,16 @@
         <v>220.3832213634118</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2224884875777</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>202.6381697443489</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -1762,7 +1762,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -1771,16 +1771,16 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>118.3163798381775</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>97.7115351030304</v>
+        <v>41.52794709217986</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -1825,7 +1825,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -1841,28 +1841,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634805</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710075</v>
       </c>
       <c r="D17" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206829</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722617</v>
       </c>
       <c r="F17" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>411.3570135595525</v>
+        <v>411.3570135595529</v>
       </c>
       <c r="H17" t="n">
         <v>299.0656566556569</v>
       </c>
       <c r="I17" t="n">
-        <v>58.35836677280798</v>
+        <v>58.35836677280793</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,16 +1892,16 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>119.106884948407</v>
+        <v>119.1068849484069</v>
       </c>
       <c r="T17" t="n">
-        <v>205.8234429485686</v>
+        <v>205.8234429485685</v>
       </c>
       <c r="U17" t="n">
-        <v>251.0299949913899</v>
+        <v>251.0299949913898</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701348</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
@@ -1910,7 +1910,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560535</v>
       </c>
     </row>
     <row r="18">
@@ -1999,13 +1999,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -2014,7 +2014,7 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>166.2210634283829</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>97.7115351030304</v>
       </c>
       <c r="S19" t="n">
         <v>193.1717904191953</v>
@@ -2062,13 +2062,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>159.9964178066027</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>136.4760960206776</v>
       </c>
     </row>
     <row r="20">
@@ -2078,28 +2078,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634805</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710075</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206829</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722617</v>
       </c>
       <c r="F20" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>411.3570135595525</v>
+        <v>411.3570135595524</v>
       </c>
       <c r="H20" t="n">
         <v>299.0656566556569</v>
       </c>
       <c r="I20" t="n">
-        <v>58.35836677280798</v>
+        <v>58.35836677280793</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,16 +2129,16 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>119.106884948407</v>
+        <v>119.1068849484069</v>
       </c>
       <c r="T20" t="n">
-        <v>205.8234429485686</v>
+        <v>205.8234429485685</v>
       </c>
       <c r="U20" t="n">
-        <v>251.0299949913899</v>
+        <v>251.0299949913898</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701348</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
@@ -2147,7 +2147,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560535</v>
       </c>
     </row>
     <row r="21">
@@ -2236,25 +2236,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>146.4910108745831</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2287,22 +2287,22 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>193.1717904191953</v>
       </c>
       <c r="T22" t="n">
         <v>220.3832213634118</v>
       </c>
       <c r="U22" t="n">
-        <v>139.3605469878584</v>
+        <v>286.2224884875776</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>54.61612478971345</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -2473,7 +2473,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -2485,7 +2485,7 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -2521,16 +2521,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>8.477975734670665</v>
       </c>
       <c r="S25" t="n">
-        <v>17.47604496077701</v>
+        <v>193.1717904191953</v>
       </c>
       <c r="T25" t="n">
         <v>220.3832213634118</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2224884875776</v>
+        <v>286.2224884875777</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2542,7 +2542,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2558,7 +2558,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206829</v>
       </c>
       <c r="E26" t="n">
         <v>381.9303700722618</v>
@@ -2567,7 +2567,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>411.3570135595525</v>
+        <v>411.3570135595524</v>
       </c>
       <c r="H26" t="n">
         <v>299.0656566556569</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>119.106884948407</v>
+        <v>119.1068849484045</v>
       </c>
       <c r="T26" t="n">
         <v>205.8234429485686</v>
@@ -2612,7 +2612,7 @@
         <v>251.0299949913899</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701348</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
@@ -2713,19 +2713,19 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>158.536765798073</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>166.2210634283829</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2758,10 +2758,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>97.7115351030304</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>193.1717904191953</v>
       </c>
       <c r="T28" t="n">
         <v>220.3832213634118</v>
@@ -2773,13 +2773,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>146.9338172553133</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2801,10 +2801,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417104</v>
       </c>
       <c r="G29" t="n">
-        <v>411.3570135595525</v>
+        <v>411.3570135595524</v>
       </c>
       <c r="H29" t="n">
         <v>299.0656566556569</v>
@@ -2947,10 +2947,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>174.0904103497693</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
@@ -2962,10 +2962,10 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>166.2210634283829</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>146.4910108745831</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2995,13 +2995,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>97.7115351030304</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>193.1717904191953</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>220.3832213634118</v>
       </c>
       <c r="U31" t="n">
         <v>286.2224884875777</v>
@@ -3010,10 +3010,10 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>140.6897902121604</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -3047,7 +3047,7 @@
         <v>299.0656566556569</v>
       </c>
       <c r="I32" t="n">
-        <v>58.35836677280798</v>
+        <v>58.35836677280697</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3089,7 +3089,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>349.2409687174127</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
         <v>369.731100678469</v>
@@ -3184,16 +3184,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>155.0998663845613</v>
+        <v>155.0998663845553</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>57.78643140331278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>123.8833592208304</v>
       </c>
       <c r="E34" t="n">
-        <v>121.7018488491931</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -3202,7 +3202,7 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>59.96794177485691</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3235,25 +3235,25 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>168.4396766218193</v>
+        <v>168.4396766218134</v>
       </c>
       <c r="T34" t="n">
-        <v>195.6511075660358</v>
+        <v>195.6511075660299</v>
       </c>
       <c r="U34" t="n">
-        <v>261.4903746902016</v>
+        <v>261.4903746901957</v>
       </c>
       <c r="V34" t="n">
-        <v>227.405529526452</v>
+        <v>227.405529526446</v>
       </c>
       <c r="W34" t="n">
-        <v>261.790884539215</v>
+        <v>261.7908845392091</v>
       </c>
       <c r="X34" t="n">
-        <v>200.9775415916611</v>
+        <v>200.9775415916552</v>
       </c>
       <c r="Y34" t="n">
-        <v>193.8525395547188</v>
+        <v>193.8525395547128</v>
       </c>
     </row>
     <row r="35">
@@ -3263,28 +3263,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>326.9273306539425</v>
+        <v>326.9273306539426</v>
       </c>
       <c r="C35" t="n">
-        <v>309.4663807614695</v>
+        <v>309.4663807614696</v>
       </c>
       <c r="D35" t="n">
-        <v>298.8765306111449</v>
+        <v>298.876530611145</v>
       </c>
       <c r="E35" t="n">
-        <v>326.1238590627237</v>
+        <v>326.1238590627238</v>
       </c>
       <c r="F35" t="n">
-        <v>351.0695347321734</v>
+        <v>351.0695347321735</v>
       </c>
       <c r="G35" t="n">
-        <v>355.5505025500144</v>
+        <v>355.5505025500145</v>
       </c>
       <c r="H35" t="n">
-        <v>243.2591456461189</v>
+        <v>243.259145646119</v>
       </c>
       <c r="I35" t="n">
-        <v>2.551855763269963</v>
+        <v>2.551855763270019</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,10 +3314,10 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>63.30037393886899</v>
+        <v>63.30037393886904</v>
       </c>
       <c r="T35" t="n">
-        <v>150.0169319390305</v>
+        <v>150.0169319390306</v>
       </c>
       <c r="U35" t="n">
         <v>195.2234839818519</v>
@@ -3332,7 +3332,7 @@
         <v>313.924589668931</v>
       </c>
       <c r="Y35" t="n">
-        <v>330.4314276465155</v>
+        <v>330.4314276465156</v>
       </c>
     </row>
     <row r="36">
@@ -3424,25 +3424,25 @@
         <v>124.0254691723993</v>
       </c>
       <c r="C37" t="n">
-        <v>111.4403100890898</v>
+        <v>111.4403100890899</v>
       </c>
       <c r="D37" t="n">
-        <v>92.80896200867434</v>
+        <v>92.8089620086744</v>
       </c>
       <c r="E37" t="n">
-        <v>90.62745163703116</v>
+        <v>90.62745163703121</v>
       </c>
       <c r="F37" t="n">
-        <v>89.61453701339323</v>
+        <v>89.61453701339329</v>
       </c>
       <c r="G37" t="n">
         <v>110.4145524188449</v>
       </c>
       <c r="H37" t="n">
-        <v>90.6844998650451</v>
+        <v>90.68449986504515</v>
       </c>
       <c r="I37" t="n">
-        <v>46.41776485689412</v>
+        <v>46.41776485689294</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,13 +3469,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.90502409349239</v>
+        <v>41.90502409349244</v>
       </c>
       <c r="S37" t="n">
-        <v>137.3652794096573</v>
+        <v>137.3652794096574</v>
       </c>
       <c r="T37" t="n">
-        <v>164.5767103538738</v>
+        <v>164.5767103538739</v>
       </c>
       <c r="U37" t="n">
         <v>230.4159774780397</v>
@@ -3487,7 +3487,7 @@
         <v>230.716487327053</v>
       </c>
       <c r="X37" t="n">
-        <v>169.9031443794991</v>
+        <v>169.9031443794992</v>
       </c>
       <c r="Y37" t="n">
         <v>162.7781423425568</v>
@@ -3758,7 +3758,7 @@
         <v>243.259145646119</v>
       </c>
       <c r="I41" t="n">
-        <v>2.551855763269991</v>
+        <v>2.551855763270019</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>63.30037393886901</v>
+        <v>63.30037393886904</v>
       </c>
       <c r="T41" t="n">
         <v>150.0169319390306</v>
@@ -3898,25 +3898,25 @@
         <v>124.0254691723993</v>
       </c>
       <c r="C43" t="n">
-        <v>111.4403100890898</v>
+        <v>111.4403100890899</v>
       </c>
       <c r="D43" t="n">
-        <v>92.80896200867437</v>
+        <v>92.8089620086744</v>
       </c>
       <c r="E43" t="n">
-        <v>90.62745163703119</v>
+        <v>90.62745163703121</v>
       </c>
       <c r="F43" t="n">
-        <v>89.61453701339326</v>
+        <v>89.61453701339329</v>
       </c>
       <c r="G43" t="n">
         <v>110.4145524188449</v>
       </c>
       <c r="H43" t="n">
-        <v>90.68449986504513</v>
+        <v>90.68449986504515</v>
       </c>
       <c r="I43" t="n">
-        <v>46.41776485689291</v>
+        <v>46.41776485689294</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,13 +3943,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.90502409349241</v>
+        <v>41.90502409349244</v>
       </c>
       <c r="S43" t="n">
-        <v>137.3652794096573</v>
+        <v>137.3652794096574</v>
       </c>
       <c r="T43" t="n">
-        <v>164.5767103538738</v>
+        <v>164.5767103538739</v>
       </c>
       <c r="U43" t="n">
         <v>230.4159774780397</v>
@@ -4144,7 +4144,7 @@
         <v>90.62745163703121</v>
       </c>
       <c r="F46" t="n">
-        <v>89.61453701339246</v>
+        <v>89.61453701339329</v>
       </c>
       <c r="G46" t="n">
         <v>110.4145524188449</v>
@@ -4304,25 +4304,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>953.9655401424092</v>
+        <v>100.4273118130612</v>
       </c>
       <c r="C2" t="n">
-        <v>710.516763498309</v>
+        <v>100.4273118130612</v>
       </c>
       <c r="D2" t="n">
-        <v>710.516763498309</v>
+        <v>100.4273118130612</v>
       </c>
       <c r="E2" t="n">
-        <v>710.516763498309</v>
+        <v>100.4273118130612</v>
       </c>
       <c r="F2" t="n">
-        <v>467.067986854209</v>
+        <v>93.48181106385776</v>
       </c>
       <c r="G2" t="n">
-        <v>243.9530410142718</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H2" t="n">
-        <v>243.9530410142718</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I2" t="n">
         <v>31.35113235729608</v>
@@ -4349,31 +4349,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q2" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R2" t="n">
-        <v>953.9655401424092</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="S2" t="n">
-        <v>953.9655401424092</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="T2" t="n">
-        <v>953.9655401424092</v>
+        <v>587.3248651012614</v>
       </c>
       <c r="U2" t="n">
-        <v>953.9655401424092</v>
+        <v>343.8760884571613</v>
       </c>
       <c r="V2" t="n">
-        <v>953.9655401424092</v>
+        <v>100.4273118130612</v>
       </c>
       <c r="W2" t="n">
-        <v>953.9655401424092</v>
+        <v>100.4273118130612</v>
       </c>
       <c r="X2" t="n">
-        <v>953.9655401424092</v>
+        <v>100.4273118130612</v>
       </c>
       <c r="Y2" t="n">
-        <v>953.9655401424092</v>
+        <v>100.4273118130612</v>
       </c>
     </row>
     <row r="3">
@@ -4383,19 +4383,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>613.4725238202047</v>
+        <v>224.6259129531442</v>
       </c>
       <c r="C3" t="n">
-        <v>613.4725238202047</v>
+        <v>50.17288367201721</v>
       </c>
       <c r="D3" t="n">
-        <v>464.5381141589534</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E3" t="n">
-        <v>305.3006591534979</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F3" t="n">
-        <v>158.7661011803829</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G3" t="n">
         <v>20.03527576299844</v>
@@ -4413,16 +4413,16 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L3" t="n">
-        <v>248.2447175439888</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M3" t="n">
-        <v>486.8488635328713</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="N3" t="n">
-        <v>725.4530095217538</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="O3" t="n">
-        <v>964.0571555106362</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P3" t="n">
         <v>964.0571555106362</v>
@@ -4431,28 +4431,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R3" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S3" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T3" t="n">
-        <v>964.0571555106362</v>
+        <v>660.701031422288</v>
       </c>
       <c r="U3" t="n">
-        <v>964.0571555106362</v>
+        <v>432.4774131586771</v>
       </c>
       <c r="V3" t="n">
-        <v>821.2328225851586</v>
+        <v>432.4774131586771</v>
       </c>
       <c r="W3" t="n">
-        <v>821.2328225851586</v>
+        <v>432.4774131586771</v>
       </c>
       <c r="X3" t="n">
-        <v>821.2328225851586</v>
+        <v>224.6259129531442</v>
       </c>
       <c r="Y3" t="n">
-        <v>613.4725238202047</v>
+        <v>224.6259129531442</v>
       </c>
     </row>
     <row r="4">
@@ -4519,19 +4519,19 @@
         <v>153.8134336004835</v>
       </c>
       <c r="U4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="5">
@@ -4541,25 +4541,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>577.2332497330343</v>
+        <v>509.8046290289238</v>
       </c>
       <c r="C5" t="n">
-        <v>577.2332497330343</v>
+        <v>509.8046290289238</v>
       </c>
       <c r="D5" t="n">
-        <v>577.2332497330343</v>
+        <v>509.8046290289238</v>
       </c>
       <c r="E5" t="n">
-        <v>577.2332497330343</v>
+        <v>266.3558523848238</v>
       </c>
       <c r="F5" t="n">
-        <v>518.2486856454962</v>
+        <v>259.4103516356203</v>
       </c>
       <c r="G5" t="n">
-        <v>274.7999090013961</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="H5" t="n">
-        <v>31.35113235729608</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="I5" t="n">
         <v>31.35113235729608</v>
@@ -4589,28 +4589,28 @@
         <v>953.9655401424092</v>
       </c>
       <c r="R5" t="n">
-        <v>802.5825927271064</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S5" t="n">
-        <v>802.5825927271064</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T5" t="n">
-        <v>577.2332497330343</v>
+        <v>753.253405673024</v>
       </c>
       <c r="U5" t="n">
-        <v>577.2332497330343</v>
+        <v>509.8046290289238</v>
       </c>
       <c r="V5" t="n">
-        <v>577.2332497330343</v>
+        <v>509.8046290289238</v>
       </c>
       <c r="W5" t="n">
-        <v>577.2332497330343</v>
+        <v>509.8046290289238</v>
       </c>
       <c r="X5" t="n">
-        <v>577.2332497330343</v>
+        <v>509.8046290289238</v>
       </c>
       <c r="Y5" t="n">
-        <v>577.2332497330343</v>
+        <v>509.8046290289238</v>
       </c>
     </row>
     <row r="6">
@@ -4620,28 +4620,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>418.5067695725487</v>
+        <v>186.4405569126723</v>
       </c>
       <c r="C6" t="n">
-        <v>418.5067695725487</v>
+        <v>186.4405569126723</v>
       </c>
       <c r="D6" t="n">
-        <v>269.5723599112974</v>
+        <v>186.4405569126723</v>
       </c>
       <c r="E6" t="n">
-        <v>110.334904905842</v>
+        <v>186.4405569126723</v>
       </c>
       <c r="F6" t="n">
-        <v>110.334904905842</v>
+        <v>186.4405569126723</v>
       </c>
       <c r="G6" t="n">
-        <v>110.334904905842</v>
+        <v>47.70973149528777</v>
       </c>
       <c r="H6" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I6" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J6" t="n">
         <v>19.28114311021272</v>
@@ -4653,10 +4653,10 @@
         <v>249.2442489785619</v>
       </c>
       <c r="M6" t="n">
-        <v>473.4149733950735</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N6" t="n">
-        <v>473.4149733950735</v>
+        <v>712.019119383956</v>
       </c>
       <c r="O6" t="n">
         <v>712.019119383956</v>
@@ -4671,25 +4671,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S6" t="n">
-        <v>964.0571555106362</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T6" t="n">
-        <v>854.5818880416925</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="U6" t="n">
-        <v>626.3582697780815</v>
+        <v>562.4161926976942</v>
       </c>
       <c r="V6" t="n">
-        <v>626.3582697780815</v>
+        <v>562.4161926976942</v>
       </c>
       <c r="W6" t="n">
-        <v>626.3582697780815</v>
+        <v>562.4161926976942</v>
       </c>
       <c r="X6" t="n">
-        <v>418.5067695725487</v>
+        <v>562.4161926976942</v>
       </c>
       <c r="Y6" t="n">
-        <v>418.5067695725487</v>
+        <v>354.6558939327403</v>
       </c>
     </row>
     <row r="7">
@@ -4699,31 +4699,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C7" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D7" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E7" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F7" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G7" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H7" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I7" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J7" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K7" t="n">
         <v>19.28114311021272</v>
@@ -4741,34 +4741,34 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P7" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q7" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R7" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S7" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T7" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U7" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V7" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W7" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X7" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y7" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="8">
@@ -4778,28 +4778,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>72.23626279480629</v>
+        <v>499.3853800778592</v>
       </c>
       <c r="C8" t="n">
-        <v>72.23626279480629</v>
+        <v>269.6754205035162</v>
       </c>
       <c r="D8" t="n">
-        <v>72.23626279480629</v>
+        <v>269.6754205035162</v>
       </c>
       <c r="E8" t="n">
-        <v>72.23626279480629</v>
+        <v>269.6754205035162</v>
       </c>
       <c r="F8" t="n">
-        <v>65.29076204560282</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G8" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H8" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I8" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J8" t="n">
         <v>19.28114311021272</v>
@@ -4826,28 +4826,28 @@
         <v>953.9655401424092</v>
       </c>
       <c r="R8" t="n">
-        <v>802.5825927271064</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S8" t="n">
-        <v>802.5825927271064</v>
+        <v>742.8341567219593</v>
       </c>
       <c r="T8" t="n">
-        <v>802.5825927271064</v>
+        <v>742.8341567219593</v>
       </c>
       <c r="U8" t="n">
-        <v>802.5825927271064</v>
+        <v>742.8341567219593</v>
       </c>
       <c r="V8" t="n">
-        <v>802.5825927271064</v>
+        <v>742.8341567219593</v>
       </c>
       <c r="W8" t="n">
-        <v>559.1338160830064</v>
+        <v>499.3853800778592</v>
       </c>
       <c r="X8" t="n">
-        <v>315.6850394389064</v>
+        <v>499.3853800778592</v>
       </c>
       <c r="Y8" t="n">
-        <v>72.23626279480629</v>
+        <v>499.3853800778592</v>
       </c>
     </row>
     <row r="9">
@@ -4857,28 +4857,28 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>133.4044113554191</v>
+        <v>178.5185981156682</v>
       </c>
       <c r="C9" t="n">
-        <v>133.4044113554191</v>
+        <v>178.5185981156682</v>
       </c>
       <c r="D9" t="n">
-        <v>133.4044113554191</v>
+        <v>178.5185981156682</v>
       </c>
       <c r="E9" t="n">
-        <v>133.4044113554191</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F9" t="n">
-        <v>133.4044113554191</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G9" t="n">
-        <v>133.4044113554191</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H9" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I9" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J9" t="n">
         <v>19.28114311021272</v>
@@ -4890,16 +4890,16 @@
         <v>249.2442489785619</v>
       </c>
       <c r="M9" t="n">
+        <v>249.2442489785619</v>
+      </c>
+      <c r="N9" t="n">
         <v>487.8483949674443</v>
       </c>
-      <c r="N9" t="n">
-        <v>542.809531908403</v>
-      </c>
       <c r="O9" t="n">
-        <v>781.4136778972854</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P9" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q9" t="n">
         <v>964.0571555106362</v>
@@ -4911,22 +4911,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T9" t="n">
-        <v>964.0571555106362</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="U9" t="n">
-        <v>735.8335372470253</v>
+        <v>533.6469426057913</v>
       </c>
       <c r="V9" t="n">
-        <v>500.6814290152826</v>
+        <v>533.6469426057913</v>
       </c>
       <c r="W9" t="n">
-        <v>341.255911560952</v>
+        <v>290.1981659616912</v>
       </c>
       <c r="X9" t="n">
-        <v>133.4044113554191</v>
+        <v>290.1981659616912</v>
       </c>
       <c r="Y9" t="n">
-        <v>133.4044113554191</v>
+        <v>290.1981659616912</v>
       </c>
     </row>
     <row r="10">
@@ -4936,31 +4936,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C10" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D10" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E10" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F10" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G10" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H10" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I10" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J10" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K10" t="n">
         <v>19.28114311021272</v>
@@ -4978,34 +4978,34 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P10" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q10" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R10" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S10" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T10" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U10" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V10" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W10" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X10" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y10" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="11">
@@ -5018,16 +5018,16 @@
         <v>2396.801190285672</v>
       </c>
       <c r="C11" t="n">
-        <v>2027.838673345261</v>
+        <v>2027.83867334526</v>
       </c>
       <c r="D11" t="n">
-        <v>1669.572974738511</v>
+        <v>1669.572974738509</v>
       </c>
       <c r="E11" t="n">
         <v>1283.784722140266</v>
       </c>
       <c r="F11" t="n">
-        <v>872.7988173506587</v>
+        <v>872.7988173506586</v>
       </c>
       <c r="G11" t="n">
         <v>457.2866824420198</v>
@@ -5036,55 +5036,55 @@
         <v>155.2001605676188</v>
       </c>
       <c r="I11" t="n">
-        <v>96.25231534256025</v>
+        <v>96.25231534256024</v>
       </c>
       <c r="J11" t="n">
-        <v>415.9620235708707</v>
+        <v>248.5563745505176</v>
       </c>
       <c r="K11" t="n">
-        <v>694.9648458151297</v>
+        <v>687.6870825042265</v>
       </c>
       <c r="L11" t="n">
-        <v>1491.478882189182</v>
+        <v>1484.201118878279</v>
       </c>
       <c r="M11" t="n">
-        <v>2394.360764952621</v>
+        <v>1942.064603483814</v>
       </c>
       <c r="N11" t="n">
-        <v>3297.220222967307</v>
+        <v>2844.924061498499</v>
       </c>
       <c r="O11" t="n">
-        <v>4104.577169259909</v>
+        <v>3652.281007791102</v>
       </c>
       <c r="P11" t="n">
-        <v>4437.382540060236</v>
+        <v>4303.667099681197</v>
       </c>
       <c r="Q11" t="n">
-        <v>4715.609167289134</v>
+        <v>4715.609167289133</v>
       </c>
       <c r="R11" t="n">
-        <v>4812.615767128013</v>
+        <v>4812.615767128012</v>
       </c>
       <c r="S11" t="n">
-        <v>4692.305782331641</v>
+        <v>4692.30578233164</v>
       </c>
       <c r="T11" t="n">
-        <v>4484.403314706825</v>
+        <v>4484.403314706824</v>
       </c>
       <c r="U11" t="n">
-        <v>4230.837663200371</v>
+        <v>4230.837663200369</v>
       </c>
       <c r="V11" t="n">
-        <v>3899.7747758568</v>
+        <v>3899.774775856798</v>
       </c>
       <c r="W11" t="n">
-        <v>3547.006120586686</v>
+        <v>3547.006120586684</v>
       </c>
       <c r="X11" t="n">
-        <v>3173.540362325606</v>
+        <v>3173.540362325604</v>
       </c>
       <c r="Y11" t="n">
-        <v>2783.401030349794</v>
+        <v>2783.401030349793</v>
       </c>
     </row>
     <row r="12">
@@ -5109,16 +5109,16 @@
         <v>342.5035539322394</v>
       </c>
       <c r="G12" t="n">
-        <v>205.9052016818157</v>
+        <v>205.9052016818156</v>
       </c>
       <c r="H12" t="n">
-        <v>113.1312674650428</v>
+        <v>113.1312674650427</v>
       </c>
       <c r="I12" t="n">
-        <v>96.25231534256025</v>
+        <v>96.25231534256024</v>
       </c>
       <c r="J12" t="n">
-        <v>292.9758476495718</v>
+        <v>168.1457226625671</v>
       </c>
       <c r="K12" t="n">
         <v>522.5569039751557</v>
@@ -5173,28 +5173,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>961.3357411277669</v>
+        <v>104.8159271957623</v>
       </c>
       <c r="C13" t="n">
-        <v>792.3995581998601</v>
+        <v>96.25231534256024</v>
       </c>
       <c r="D13" t="n">
-        <v>642.2829187875243</v>
+        <v>96.25231534256024</v>
       </c>
       <c r="E13" t="n">
-        <v>494.3698252051312</v>
+        <v>96.25231534256024</v>
       </c>
       <c r="F13" t="n">
-        <v>347.4798777072209</v>
+        <v>96.25231534256024</v>
       </c>
       <c r="G13" t="n">
-        <v>347.4798777072209</v>
+        <v>96.25231534256024</v>
       </c>
       <c r="H13" t="n">
-        <v>199.5091596520864</v>
+        <v>96.25231534256024</v>
       </c>
       <c r="I13" t="n">
-        <v>96.25231534256025</v>
+        <v>96.25231534256024</v>
       </c>
       <c r="J13" t="n">
         <v>127.7084527208552</v>
@@ -5203,7 +5203,7 @@
         <v>309.2373860905589</v>
       </c>
       <c r="L13" t="n">
-        <v>597.0583571824202</v>
+        <v>597.0583571824203</v>
       </c>
       <c r="M13" t="n">
         <v>910.9143388153279</v>
@@ -5230,19 +5230,19 @@
         <v>1347.669225901794</v>
       </c>
       <c r="U13" t="n">
-        <v>1347.669225901794</v>
+        <v>1058.555601166867</v>
       </c>
       <c r="V13" t="n">
-        <v>1347.669225901794</v>
+        <v>803.87111296098</v>
       </c>
       <c r="W13" t="n">
-        <v>1142.984205958007</v>
+        <v>514.4539429240194</v>
       </c>
       <c r="X13" t="n">
-        <v>1142.984205958007</v>
+        <v>286.4643920260021</v>
       </c>
       <c r="Y13" t="n">
-        <v>1142.984205958007</v>
+        <v>286.464392026002</v>
       </c>
     </row>
     <row r="14">
@@ -5255,52 +5255,52 @@
         <v>2396.801190285672</v>
       </c>
       <c r="C14" t="n">
-        <v>2027.838673345261</v>
+        <v>2027.83867334526</v>
       </c>
       <c r="D14" t="n">
-        <v>1669.57297473851</v>
+        <v>1669.572974738509</v>
       </c>
       <c r="E14" t="n">
-        <v>1283.784722140266</v>
+        <v>1283.784722140265</v>
       </c>
       <c r="F14" t="n">
-        <v>872.7988173506585</v>
+        <v>872.7988173506576</v>
       </c>
       <c r="G14" t="n">
-        <v>457.2866824420199</v>
+        <v>457.2866824420198</v>
       </c>
       <c r="H14" t="n">
         <v>155.2001605676188</v>
       </c>
       <c r="I14" t="n">
-        <v>96.25231534256025</v>
+        <v>96.25231534256024</v>
       </c>
       <c r="J14" t="n">
-        <v>248.5563745505176</v>
+        <v>415.9620235708707</v>
       </c>
       <c r="K14" t="n">
-        <v>848.4631552402298</v>
+        <v>694.9648458151297</v>
       </c>
       <c r="L14" t="n">
-        <v>1644.977191614282</v>
+        <v>1422.822697484395</v>
       </c>
       <c r="M14" t="n">
-        <v>2375.038058651679</v>
+        <v>2325.704580247834</v>
       </c>
       <c r="N14" t="n">
-        <v>2844.9240614985</v>
+        <v>3228.56403826252</v>
       </c>
       <c r="O14" t="n">
-        <v>3652.281007791103</v>
+        <v>4035.920984555122</v>
       </c>
       <c r="P14" t="n">
-        <v>4303.667099681198</v>
+        <v>4368.726355355449</v>
       </c>
       <c r="Q14" t="n">
-        <v>4715.609167289134</v>
+        <v>4780.668422963386</v>
       </c>
       <c r="R14" t="n">
-        <v>4812.615767128013</v>
+        <v>4812.615767128012</v>
       </c>
       <c r="S14" t="n">
         <v>4692.305782331641</v>
@@ -5309,19 +5309,19 @@
         <v>4484.403314706825</v>
       </c>
       <c r="U14" t="n">
-        <v>4230.837663200371</v>
+        <v>4230.83766320037</v>
       </c>
       <c r="V14" t="n">
-        <v>3899.7747758568</v>
+        <v>3899.774775856799</v>
       </c>
       <c r="W14" t="n">
-        <v>3547.006120586686</v>
+        <v>3547.006120586685</v>
       </c>
       <c r="X14" t="n">
-        <v>3173.540362325606</v>
+        <v>3173.540362325605</v>
       </c>
       <c r="Y14" t="n">
-        <v>2783.401030349794</v>
+        <v>2783.401030349793</v>
       </c>
     </row>
     <row r="15">
@@ -5346,37 +5346,37 @@
         <v>342.5035539322394</v>
       </c>
       <c r="G15" t="n">
-        <v>205.9052016818157</v>
+        <v>205.9052016818156</v>
       </c>
       <c r="H15" t="n">
-        <v>113.1312674650428</v>
+        <v>113.1312674650427</v>
       </c>
       <c r="I15" t="n">
-        <v>96.25231534256025</v>
+        <v>96.25231534256024</v>
       </c>
       <c r="J15" t="n">
-        <v>292.9758476495718</v>
+        <v>168.1457226625671</v>
       </c>
       <c r="K15" t="n">
-        <v>494.0079564978283</v>
+        <v>369.1778315108236</v>
       </c>
       <c r="L15" t="n">
-        <v>810.6429769025938</v>
+        <v>685.812851915589</v>
       </c>
       <c r="M15" t="n">
-        <v>1199.497979178149</v>
+        <v>1074.667854191144</v>
       </c>
       <c r="N15" t="n">
-        <v>1613.053461205515</v>
+        <v>1818.969551819632</v>
       </c>
       <c r="O15" t="n">
-        <v>1969.156137440379</v>
+        <v>2175.072228054496</v>
       </c>
       <c r="P15" t="n">
-        <v>2264.17581091941</v>
+        <v>2441.5429540562</v>
       </c>
       <c r="Q15" t="n">
-        <v>2600.361752854265</v>
+        <v>2569.752381132564</v>
       </c>
       <c r="R15" t="n">
         <v>2600.361752854265</v>
@@ -5410,28 +5410,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>679.5030341368085</v>
+        <v>265.1884982704671</v>
       </c>
       <c r="C16" t="n">
-        <v>510.5668512089017</v>
+        <v>96.25231534256024</v>
       </c>
       <c r="D16" t="n">
-        <v>510.5668512089017</v>
+        <v>96.25231534256024</v>
       </c>
       <c r="E16" t="n">
-        <v>362.6537576265085</v>
+        <v>96.25231534256024</v>
       </c>
       <c r="F16" t="n">
-        <v>215.7638101285982</v>
+        <v>96.25231534256024</v>
       </c>
       <c r="G16" t="n">
-        <v>215.7638101285982</v>
+        <v>96.25231534256024</v>
       </c>
       <c r="H16" t="n">
-        <v>96.25231534256025</v>
+        <v>96.25231534256024</v>
       </c>
       <c r="I16" t="n">
-        <v>96.25231534256025</v>
+        <v>96.25231534256024</v>
       </c>
       <c r="J16" t="n">
         <v>127.7084527208552</v>
@@ -5443,7 +5443,7 @@
         <v>597.0583571824203</v>
       </c>
       <c r="M16" t="n">
-        <v>910.9143388153279</v>
+        <v>910.9143388153278</v>
       </c>
       <c r="N16" t="n">
         <v>1222.74214312947</v>
@@ -5458,28 +5458,28 @@
         <v>1765.40156103574</v>
       </c>
       <c r="R16" t="n">
-        <v>1666.703040729649</v>
+        <v>1723.454139730508</v>
       </c>
       <c r="S16" t="n">
-        <v>1666.703040729649</v>
+        <v>1723.454139730508</v>
       </c>
       <c r="T16" t="n">
-        <v>1444.093726221152</v>
+        <v>1500.844825222011</v>
       </c>
       <c r="U16" t="n">
-        <v>1154.980101486226</v>
+        <v>1211.731200487084</v>
       </c>
       <c r="V16" t="n">
-        <v>900.2956132803387</v>
+        <v>957.0467122811975</v>
       </c>
       <c r="W16" t="n">
-        <v>900.2956132803387</v>
+        <v>667.629542244237</v>
       </c>
       <c r="X16" t="n">
-        <v>900.2956132803387</v>
+        <v>667.629542244237</v>
       </c>
       <c r="Y16" t="n">
-        <v>679.5030341368085</v>
+        <v>446.8369631007068</v>
       </c>
     </row>
     <row r="17">
@@ -5489,7 +5489,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2396.801190285673</v>
+        <v>2396.801190285672</v>
       </c>
       <c r="C17" t="n">
         <v>2027.838673345261</v>
@@ -5498,19 +5498,19 @@
         <v>1669.572974738511</v>
       </c>
       <c r="E17" t="n">
-        <v>1283.784722140266</v>
+        <v>1283.784722140267</v>
       </c>
       <c r="F17" t="n">
-        <v>872.7988173506587</v>
+        <v>872.798817350659</v>
       </c>
       <c r="G17" t="n">
-        <v>457.2866824420198</v>
+        <v>457.2866824420196</v>
       </c>
       <c r="H17" t="n">
         <v>155.2001605676188</v>
       </c>
       <c r="I17" t="n">
-        <v>96.25231534256025</v>
+        <v>96.25231534256024</v>
       </c>
       <c r="J17" t="n">
         <v>248.5563745505176</v>
@@ -5519,31 +5519,31 @@
         <v>848.4631552402298</v>
       </c>
       <c r="L17" t="n">
-        <v>1644.977191614282</v>
+        <v>1357.763441810143</v>
       </c>
       <c r="M17" t="n">
-        <v>2375.038058651679</v>
+        <v>2260.645324573582</v>
       </c>
       <c r="N17" t="n">
-        <v>2844.9240614985</v>
+        <v>3163.504782588268</v>
       </c>
       <c r="O17" t="n">
-        <v>3652.281007791103</v>
+        <v>3970.86172888087</v>
       </c>
       <c r="P17" t="n">
-        <v>4303.667099681198</v>
+        <v>4303.667099681197</v>
       </c>
       <c r="Q17" t="n">
-        <v>4715.609167289134</v>
+        <v>4715.609167289133</v>
       </c>
       <c r="R17" t="n">
-        <v>4812.615767128013</v>
+        <v>4812.615767128012</v>
       </c>
       <c r="S17" t="n">
-        <v>4692.305782331642</v>
+        <v>4692.305782331641</v>
       </c>
       <c r="T17" t="n">
-        <v>4484.403314706825</v>
+        <v>4484.403314706824</v>
       </c>
       <c r="U17" t="n">
         <v>4230.837663200371</v>
@@ -5583,34 +5583,34 @@
         <v>342.5035539322394</v>
       </c>
       <c r="G18" t="n">
-        <v>205.9052016818157</v>
+        <v>205.9052016818156</v>
       </c>
       <c r="H18" t="n">
-        <v>113.1312674650428</v>
+        <v>113.1312674650427</v>
       </c>
       <c r="I18" t="n">
-        <v>96.25231534256025</v>
+        <v>96.25231534256024</v>
       </c>
       <c r="J18" t="n">
-        <v>292.9758476495718</v>
+        <v>168.1457226625671</v>
       </c>
       <c r="K18" t="n">
-        <v>494.0079564978283</v>
+        <v>369.1778315108236</v>
       </c>
       <c r="L18" t="n">
-        <v>810.6429769025938</v>
+        <v>685.812851915589</v>
       </c>
       <c r="M18" t="n">
-        <v>1199.497979178149</v>
+        <v>1074.667854191144</v>
       </c>
       <c r="N18" t="n">
-        <v>1613.053461205515</v>
+        <v>1488.22333621851</v>
       </c>
       <c r="O18" t="n">
-        <v>1997.705084917706</v>
+        <v>2205.681599776197</v>
       </c>
       <c r="P18" t="n">
-        <v>2264.17581091941</v>
+        <v>2472.1523257779</v>
       </c>
       <c r="Q18" t="n">
         <v>2600.361752854265</v>
@@ -5647,28 +5647,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>414.2690188239696</v>
+        <v>96.25231534256024</v>
       </c>
       <c r="C19" t="n">
-        <v>414.2690188239696</v>
+        <v>96.25231534256024</v>
       </c>
       <c r="D19" t="n">
-        <v>264.1523794116339</v>
+        <v>96.25231534256024</v>
       </c>
       <c r="E19" t="n">
-        <v>264.1523794116339</v>
+        <v>96.25231534256024</v>
       </c>
       <c r="F19" t="n">
-        <v>264.1523794116339</v>
+        <v>96.25231534256024</v>
       </c>
       <c r="G19" t="n">
-        <v>96.25231534256025</v>
+        <v>96.25231534256024</v>
       </c>
       <c r="H19" t="n">
-        <v>96.25231534256025</v>
+        <v>96.25231534256024</v>
       </c>
       <c r="I19" t="n">
-        <v>96.25231534256025</v>
+        <v>96.25231534256024</v>
       </c>
       <c r="J19" t="n">
         <v>127.7084527208552</v>
@@ -5677,10 +5677,10 @@
         <v>309.2373860905589</v>
       </c>
       <c r="L19" t="n">
-        <v>597.0583571824203</v>
+        <v>597.0583571824204</v>
       </c>
       <c r="M19" t="n">
-        <v>910.9143388153281</v>
+        <v>910.9143388153282</v>
       </c>
       <c r="N19" t="n">
         <v>1222.74214312947</v>
@@ -5695,28 +5695,28 @@
         <v>1765.401561035741</v>
       </c>
       <c r="R19" t="n">
-        <v>1765.401561035741</v>
+        <v>1666.70304072965</v>
       </c>
       <c r="S19" t="n">
-        <v>1570.278540410291</v>
+        <v>1471.5800201042</v>
       </c>
       <c r="T19" t="n">
-        <v>1347.669225901794</v>
+        <v>1248.970705595703</v>
       </c>
       <c r="U19" t="n">
-        <v>1058.555601166867</v>
+        <v>959.857080860776</v>
       </c>
       <c r="V19" t="n">
-        <v>803.8711129609796</v>
+        <v>705.1725926548892</v>
       </c>
       <c r="W19" t="n">
-        <v>642.258569721987</v>
+        <v>415.7554226179288</v>
       </c>
       <c r="X19" t="n">
-        <v>414.2690188239696</v>
+        <v>415.7554226179288</v>
       </c>
       <c r="Y19" t="n">
-        <v>414.2690188239696</v>
+        <v>277.9007801727999</v>
       </c>
     </row>
     <row r="20">
@@ -5726,28 +5726,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2396.801190285673</v>
+        <v>2396.801190285672</v>
       </c>
       <c r="C20" t="n">
-        <v>2027.838673345261</v>
+        <v>2027.83867334526</v>
       </c>
       <c r="D20" t="n">
-        <v>1669.572974738511</v>
+        <v>1669.57297473851</v>
       </c>
       <c r="E20" t="n">
         <v>1283.784722140266</v>
       </c>
       <c r="F20" t="n">
-        <v>872.7988173506578</v>
+        <v>872.7988173506583</v>
       </c>
       <c r="G20" t="n">
-        <v>457.2866824420189</v>
+        <v>457.2866824420195</v>
       </c>
       <c r="H20" t="n">
         <v>155.2001605676188</v>
       </c>
       <c r="I20" t="n">
-        <v>96.25231534256025</v>
+        <v>96.25231534256024</v>
       </c>
       <c r="J20" t="n">
         <v>248.5563745505176</v>
@@ -5756,46 +5756,46 @@
         <v>848.4631552402298</v>
       </c>
       <c r="L20" t="n">
-        <v>1633.014538237702</v>
+        <v>1644.977191614282</v>
       </c>
       <c r="M20" t="n">
-        <v>2535.896421001141</v>
+        <v>2102.840676219817</v>
       </c>
       <c r="N20" t="n">
-        <v>3438.755879015826</v>
+        <v>3005.700134234502</v>
       </c>
       <c r="O20" t="n">
-        <v>4246.112825308429</v>
+        <v>3813.057080527105</v>
       </c>
       <c r="P20" t="n">
-        <v>4578.918196108756</v>
+        <v>4464.443172417199</v>
       </c>
       <c r="Q20" t="n">
-        <v>4780.668422963387</v>
+        <v>4715.609167289133</v>
       </c>
       <c r="R20" t="n">
-        <v>4812.615767128013</v>
+        <v>4812.615767128012</v>
       </c>
       <c r="S20" t="n">
-        <v>4692.305782331641</v>
+        <v>4692.30578233164</v>
       </c>
       <c r="T20" t="n">
-        <v>4484.403314706825</v>
+        <v>4484.403314706824</v>
       </c>
       <c r="U20" t="n">
-        <v>4230.837663200371</v>
+        <v>4230.83766320037</v>
       </c>
       <c r="V20" t="n">
-        <v>3899.7747758568</v>
+        <v>3899.774775856799</v>
       </c>
       <c r="W20" t="n">
-        <v>3547.006120586686</v>
+        <v>3547.006120586685</v>
       </c>
       <c r="X20" t="n">
-        <v>3173.540362325606</v>
+        <v>3173.540362325605</v>
       </c>
       <c r="Y20" t="n">
-        <v>2783.401030349794</v>
+        <v>2783.401030349793</v>
       </c>
     </row>
     <row r="21">
@@ -5820,34 +5820,34 @@
         <v>342.5035539322394</v>
       </c>
       <c r="G21" t="n">
-        <v>205.9052016818157</v>
+        <v>205.9052016818156</v>
       </c>
       <c r="H21" t="n">
-        <v>113.1312674650428</v>
+        <v>113.1312674650427</v>
       </c>
       <c r="I21" t="n">
-        <v>96.25231534256025</v>
+        <v>96.25231534256024</v>
       </c>
       <c r="J21" t="n">
-        <v>292.9758476495718</v>
+        <v>168.1457226625671</v>
       </c>
       <c r="K21" t="n">
-        <v>494.0079564978283</v>
+        <v>369.1778315108236</v>
       </c>
       <c r="L21" t="n">
-        <v>810.6429769025938</v>
+        <v>685.812851915589</v>
       </c>
       <c r="M21" t="n">
-        <v>1199.497979178149</v>
+        <v>1436.023441513967</v>
       </c>
       <c r="N21" t="n">
-        <v>1613.053461205515</v>
+        <v>1849.578923541333</v>
       </c>
       <c r="O21" t="n">
-        <v>1969.156137440379</v>
+        <v>2205.681599776197</v>
       </c>
       <c r="P21" t="n">
-        <v>2264.17581091941</v>
+        <v>2472.1523257779</v>
       </c>
       <c r="Q21" t="n">
         <v>2600.361752854265</v>
@@ -5884,40 +5884,40 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>710.165803235848</v>
+        <v>265.1884982704669</v>
       </c>
       <c r="C22" t="n">
-        <v>541.2296203079411</v>
+        <v>96.25231534256024</v>
       </c>
       <c r="D22" t="n">
-        <v>391.1129808956051</v>
+        <v>96.25231534256024</v>
       </c>
       <c r="E22" t="n">
-        <v>391.1129808956051</v>
+        <v>96.25231534256024</v>
       </c>
       <c r="F22" t="n">
-        <v>244.2230333976947</v>
+        <v>96.25231534256024</v>
       </c>
       <c r="G22" t="n">
-        <v>244.2230333976947</v>
+        <v>96.25231534256024</v>
       </c>
       <c r="H22" t="n">
-        <v>96.25231534256025</v>
+        <v>96.25231534256024</v>
       </c>
       <c r="I22" t="n">
-        <v>96.25231534256025</v>
+        <v>96.25231534256024</v>
       </c>
       <c r="J22" t="n">
-        <v>127.7084527208552</v>
+        <v>127.7084527208551</v>
       </c>
       <c r="K22" t="n">
-        <v>309.2373860905589</v>
+        <v>309.2373860905588</v>
       </c>
       <c r="L22" t="n">
         <v>597.0583571824203</v>
       </c>
       <c r="M22" t="n">
-        <v>910.9143388153282</v>
+        <v>910.9143388153279</v>
       </c>
       <c r="N22" t="n">
         <v>1222.74214312947</v>
@@ -5929,31 +5929,31 @@
         <v>1703.977723167558</v>
       </c>
       <c r="Q22" t="n">
-        <v>1765.40156103574</v>
+        <v>1765.401561035741</v>
       </c>
       <c r="R22" t="n">
-        <v>1765.40156103574</v>
+        <v>1765.401561035741</v>
       </c>
       <c r="S22" t="n">
-        <v>1765.40156103574</v>
+        <v>1570.278540410291</v>
       </c>
       <c r="T22" t="n">
-        <v>1542.792246527244</v>
+        <v>1347.669225901794</v>
       </c>
       <c r="U22" t="n">
-        <v>1402.024017246579</v>
+        <v>1058.555601166867</v>
       </c>
       <c r="V22" t="n">
-        <v>1402.024017246579</v>
+        <v>1003.387798348975</v>
       </c>
       <c r="W22" t="n">
-        <v>1112.606847209618</v>
+        <v>713.9706283120144</v>
       </c>
       <c r="X22" t="n">
-        <v>1112.606847209618</v>
+        <v>485.981077413997</v>
       </c>
       <c r="Y22" t="n">
-        <v>891.8142680660877</v>
+        <v>265.1884982704669</v>
       </c>
     </row>
     <row r="23">
@@ -5966,25 +5966,25 @@
         <v>2396.801190285672</v>
       </c>
       <c r="C23" t="n">
-        <v>2027.838673345261</v>
+        <v>2027.83867334526</v>
       </c>
       <c r="D23" t="n">
-        <v>1669.57297473851</v>
+        <v>1669.572974738509</v>
       </c>
       <c r="E23" t="n">
-        <v>1283.784722140266</v>
+        <v>1283.784722140265</v>
       </c>
       <c r="F23" t="n">
-        <v>872.7988173506587</v>
+        <v>872.7988173506577</v>
       </c>
       <c r="G23" t="n">
-        <v>457.2866824420197</v>
+        <v>457.2866824420189</v>
       </c>
       <c r="H23" t="n">
         <v>155.2001605676188</v>
       </c>
       <c r="I23" t="n">
-        <v>96.25231534256025</v>
+        <v>96.25231534256024</v>
       </c>
       <c r="J23" t="n">
         <v>248.5563745505176</v>
@@ -5993,46 +5993,46 @@
         <v>848.4631552402298</v>
       </c>
       <c r="L23" t="n">
-        <v>1644.977191614282</v>
+        <v>1231.492589209336</v>
       </c>
       <c r="M23" t="n">
-        <v>2375.038058651679</v>
+        <v>2134.374471972776</v>
       </c>
       <c r="N23" t="n">
-        <v>2844.9240614985</v>
+        <v>2909.983317172751</v>
       </c>
       <c r="O23" t="n">
-        <v>3652.281007791103</v>
+        <v>3717.340263465354</v>
       </c>
       <c r="P23" t="n">
-        <v>4303.667099681198</v>
+        <v>4368.726355355449</v>
       </c>
       <c r="Q23" t="n">
-        <v>4715.609167289134</v>
+        <v>4780.668422963386</v>
       </c>
       <c r="R23" t="n">
-        <v>4812.615767128013</v>
+        <v>4812.615767128012</v>
       </c>
       <c r="S23" t="n">
-        <v>4692.305782331641</v>
+        <v>4692.30578233164</v>
       </c>
       <c r="T23" t="n">
-        <v>4484.403314706825</v>
+        <v>4484.403314706824</v>
       </c>
       <c r="U23" t="n">
-        <v>4230.837663200371</v>
+        <v>4230.83766320037</v>
       </c>
       <c r="V23" t="n">
-        <v>3899.7747758568</v>
+        <v>3899.774775856799</v>
       </c>
       <c r="W23" t="n">
-        <v>3547.006120586686</v>
+        <v>3547.006120586685</v>
       </c>
       <c r="X23" t="n">
-        <v>3173.540362325606</v>
+        <v>3173.540362325605</v>
       </c>
       <c r="Y23" t="n">
-        <v>2783.401030349794</v>
+        <v>2783.401030349793</v>
       </c>
     </row>
     <row r="24">
@@ -6057,34 +6057,34 @@
         <v>342.5035539322394</v>
       </c>
       <c r="G24" t="n">
-        <v>205.9052016818157</v>
+        <v>205.9052016818156</v>
       </c>
       <c r="H24" t="n">
-        <v>113.1312674650428</v>
+        <v>113.1312674650427</v>
       </c>
       <c r="I24" t="n">
-        <v>96.25231534256025</v>
+        <v>96.25231534256024</v>
       </c>
       <c r="J24" t="n">
-        <v>292.9758476495718</v>
+        <v>168.1457226625671</v>
       </c>
       <c r="K24" t="n">
-        <v>494.0079564978283</v>
+        <v>369.1778315108236</v>
       </c>
       <c r="L24" t="n">
-        <v>810.6429769025938</v>
+        <v>685.812851915589</v>
       </c>
       <c r="M24" t="n">
-        <v>1199.497979178149</v>
+        <v>1436.023441513967</v>
       </c>
       <c r="N24" t="n">
-        <v>1613.053461205515</v>
+        <v>1849.578923541333</v>
       </c>
       <c r="O24" t="n">
-        <v>1969.156137440379</v>
+        <v>2205.681599776197</v>
       </c>
       <c r="P24" t="n">
-        <v>2264.17581091941</v>
+        <v>2472.1523257779</v>
       </c>
       <c r="Q24" t="n">
         <v>2600.361752854265</v>
@@ -6121,28 +6121,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>243.1422628404704</v>
+        <v>96.25231534256024</v>
       </c>
       <c r="C25" t="n">
-        <v>243.1422628404704</v>
+        <v>96.25231534256024</v>
       </c>
       <c r="D25" t="n">
-        <v>243.1422628404704</v>
+        <v>96.25231534256024</v>
       </c>
       <c r="E25" t="n">
-        <v>243.1422628404704</v>
+        <v>96.25231534256024</v>
       </c>
       <c r="F25" t="n">
-        <v>96.25231534256025</v>
+        <v>96.25231534256024</v>
       </c>
       <c r="G25" t="n">
-        <v>96.25231534256025</v>
+        <v>96.25231534256024</v>
       </c>
       <c r="H25" t="n">
-        <v>96.25231534256025</v>
+        <v>96.25231534256024</v>
       </c>
       <c r="I25" t="n">
-        <v>96.25231534256025</v>
+        <v>96.25231534256024</v>
       </c>
       <c r="J25" t="n">
         <v>127.7084527208553</v>
@@ -6154,43 +6154,43 @@
         <v>597.0583571824204</v>
       </c>
       <c r="M25" t="n">
-        <v>910.9143388153281</v>
+        <v>910.9143388153282</v>
       </c>
       <c r="N25" t="n">
         <v>1222.74214312947</v>
       </c>
       <c r="O25" t="n">
-        <v>1494.749295691748</v>
+        <v>1494.749295691747</v>
       </c>
       <c r="P25" t="n">
         <v>1703.977723167558</v>
       </c>
       <c r="Q25" t="n">
-        <v>1765.40156103574</v>
+        <v>1765.401561035741</v>
       </c>
       <c r="R25" t="n">
-        <v>1765.40156103574</v>
+        <v>1756.837949182538</v>
       </c>
       <c r="S25" t="n">
-        <v>1747.748990368289</v>
+        <v>1561.714928557088</v>
       </c>
       <c r="T25" t="n">
-        <v>1525.139675859792</v>
+        <v>1339.105614048592</v>
       </c>
       <c r="U25" t="n">
-        <v>1236.026051124865</v>
+        <v>1049.991989313665</v>
       </c>
       <c r="V25" t="n">
-        <v>981.3415629189784</v>
+        <v>795.3075011077777</v>
       </c>
       <c r="W25" t="n">
-        <v>691.9243928820179</v>
+        <v>505.8903310708172</v>
       </c>
       <c r="X25" t="n">
-        <v>463.9348419840005</v>
+        <v>277.9007801728</v>
       </c>
       <c r="Y25" t="n">
-        <v>243.1422628404704</v>
+        <v>277.9007801728</v>
       </c>
     </row>
     <row r="26">
@@ -6200,76 +6200,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2396.801190285671</v>
+        <v>2396.801190285672</v>
       </c>
       <c r="C26" t="n">
-        <v>2027.838673345259</v>
+        <v>2027.838673345261</v>
       </c>
       <c r="D26" t="n">
-        <v>1669.572974738509</v>
+        <v>1669.57297473851</v>
       </c>
       <c r="E26" t="n">
-        <v>1283.784722140265</v>
+        <v>1283.784722140266</v>
       </c>
       <c r="F26" t="n">
-        <v>872.7988173506574</v>
+        <v>872.7988173506585</v>
       </c>
       <c r="G26" t="n">
-        <v>457.2866824420189</v>
+        <v>457.2866824420197</v>
       </c>
       <c r="H26" t="n">
-        <v>155.2001605676187</v>
+        <v>155.2001605676188</v>
       </c>
       <c r="I26" t="n">
-        <v>96.25231534256025</v>
+        <v>96.25231534256019</v>
       </c>
       <c r="J26" t="n">
-        <v>282.2465831918323</v>
+        <v>248.5563745505176</v>
       </c>
       <c r="K26" t="n">
-        <v>561.2494054360914</v>
+        <v>848.4631552402298</v>
       </c>
       <c r="L26" t="n">
-        <v>1357.763441810144</v>
+        <v>1644.977191614282</v>
       </c>
       <c r="M26" t="n">
-        <v>2260.645324573583</v>
+        <v>2547.859074377721</v>
       </c>
       <c r="N26" t="n">
-        <v>3163.504782588268</v>
+        <v>3450.718532392407</v>
       </c>
       <c r="O26" t="n">
-        <v>3970.861728880871</v>
+        <v>3881.083299234891</v>
       </c>
       <c r="P26" t="n">
-        <v>4303.667099681198</v>
+        <v>4532.469391124986</v>
       </c>
       <c r="Q26" t="n">
-        <v>4715.609167289134</v>
+        <v>4780.668422963384</v>
       </c>
       <c r="R26" t="n">
-        <v>4812.615767128013</v>
+        <v>4812.61576712801</v>
       </c>
       <c r="S26" t="n">
         <v>4692.305782331641</v>
       </c>
       <c r="T26" t="n">
-        <v>4484.403314706824</v>
+        <v>4484.403314706825</v>
       </c>
       <c r="U26" t="n">
-        <v>4230.837663200369</v>
+        <v>4230.83766320037</v>
       </c>
       <c r="V26" t="n">
-        <v>3899.774775856798</v>
+        <v>3899.7747758568</v>
       </c>
       <c r="W26" t="n">
-        <v>3547.006120586684</v>
+        <v>3547.006120586685</v>
       </c>
       <c r="X26" t="n">
-        <v>3173.540362325604</v>
+        <v>3173.540362325606</v>
       </c>
       <c r="Y26" t="n">
-        <v>2783.401030349793</v>
+        <v>2783.401030349794</v>
       </c>
     </row>
     <row r="27">
@@ -6288,43 +6288,43 @@
         <v>648.2755669108099</v>
       </c>
       <c r="E27" t="n">
-        <v>489.0381119053544</v>
+        <v>489.0381119053543</v>
       </c>
       <c r="F27" t="n">
-        <v>342.5035539322394</v>
+        <v>342.5035539322393</v>
       </c>
       <c r="G27" t="n">
-        <v>205.9052016818157</v>
+        <v>205.9052016818156</v>
       </c>
       <c r="H27" t="n">
-        <v>113.1312674650428</v>
+        <v>113.1312674650427</v>
       </c>
       <c r="I27" t="n">
-        <v>96.25231534256025</v>
+        <v>96.25231534256019</v>
       </c>
       <c r="J27" t="n">
-        <v>292.9758476495718</v>
+        <v>168.145722662567</v>
       </c>
       <c r="K27" t="n">
-        <v>522.5569039751557</v>
+        <v>369.1778315108235</v>
       </c>
       <c r="L27" t="n">
-        <v>839.1919243799211</v>
+        <v>701.2809265631738</v>
       </c>
       <c r="M27" t="n">
-        <v>1228.046926655477</v>
+        <v>1090.135928838729</v>
       </c>
       <c r="N27" t="n">
-        <v>1641.602408682842</v>
+        <v>1503.691410866095</v>
       </c>
       <c r="O27" t="n">
-        <v>1997.705084917706</v>
+        <v>1859.794087100959</v>
       </c>
       <c r="P27" t="n">
-        <v>2264.17581091941</v>
+        <v>2441.5429540562</v>
       </c>
       <c r="Q27" t="n">
-        <v>2600.361752854265</v>
+        <v>2569.752381132564</v>
       </c>
       <c r="R27" t="n">
         <v>2600.361752854265</v>
@@ -6358,28 +6358,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>561.1589663218797</v>
+        <v>256.3904626133411</v>
       </c>
       <c r="C28" t="n">
-        <v>561.1589663218797</v>
+        <v>96.25231534256019</v>
       </c>
       <c r="D28" t="n">
-        <v>411.0423269095439</v>
+        <v>96.25231534256019</v>
       </c>
       <c r="E28" t="n">
-        <v>411.0423269095439</v>
+        <v>96.25231534256019</v>
       </c>
       <c r="F28" t="n">
-        <v>264.1523794116335</v>
+        <v>96.25231534256019</v>
       </c>
       <c r="G28" t="n">
-        <v>96.25231534256025</v>
+        <v>96.25231534256019</v>
       </c>
       <c r="H28" t="n">
-        <v>96.25231534256025</v>
+        <v>96.25231534256019</v>
       </c>
       <c r="I28" t="n">
-        <v>96.25231534256025</v>
+        <v>96.25231534256019</v>
       </c>
       <c r="J28" t="n">
         <v>127.7084527208552</v>
@@ -6400,34 +6400,34 @@
         <v>1494.749295691747</v>
       </c>
       <c r="P28" t="n">
-        <v>1703.977723167557</v>
+        <v>1703.977723167558</v>
       </c>
       <c r="Q28" t="n">
         <v>1765.40156103574</v>
       </c>
       <c r="R28" t="n">
-        <v>1765.40156103574</v>
+        <v>1666.703040729649</v>
       </c>
       <c r="S28" t="n">
-        <v>1765.40156103574</v>
+        <v>1471.580020104199</v>
       </c>
       <c r="T28" t="n">
-        <v>1542.792246527243</v>
+        <v>1248.970705595702</v>
       </c>
       <c r="U28" t="n">
-        <v>1253.678621792316</v>
+        <v>959.8570808607755</v>
       </c>
       <c r="V28" t="n">
-        <v>998.9941335864295</v>
+        <v>705.1725926548886</v>
       </c>
       <c r="W28" t="n">
-        <v>709.5769635494689</v>
+        <v>705.1725926548886</v>
       </c>
       <c r="X28" t="n">
-        <v>561.1589663218797</v>
+        <v>477.1830417568713</v>
       </c>
       <c r="Y28" t="n">
-        <v>561.1589663218797</v>
+        <v>256.3904626133411</v>
       </c>
     </row>
     <row r="29">
@@ -6449,16 +6449,16 @@
         <v>1283.784722140265</v>
       </c>
       <c r="F29" t="n">
-        <v>872.7988173506574</v>
+        <v>872.7988173506585</v>
       </c>
       <c r="G29" t="n">
-        <v>457.2866824420189</v>
+        <v>457.2866824420198</v>
       </c>
       <c r="H29" t="n">
-        <v>155.2001605676189</v>
+        <v>155.2001605676188</v>
       </c>
       <c r="I29" t="n">
-        <v>96.25231534256025</v>
+        <v>96.25231534256024</v>
       </c>
       <c r="J29" t="n">
         <v>415.9620235708707</v>
@@ -6467,28 +6467,28 @@
         <v>694.9648458151297</v>
       </c>
       <c r="L29" t="n">
-        <v>1077.994279784236</v>
+        <v>1491.478882189182</v>
       </c>
       <c r="M29" t="n">
-        <v>1980.876162547675</v>
+        <v>2375.038058651679</v>
       </c>
       <c r="N29" t="n">
-        <v>2883.735620562361</v>
+        <v>2844.924061498499</v>
       </c>
       <c r="O29" t="n">
-        <v>3691.092566854963</v>
+        <v>3652.281007791102</v>
       </c>
       <c r="P29" t="n">
-        <v>4303.667099681198</v>
+        <v>4303.667099681197</v>
       </c>
       <c r="Q29" t="n">
-        <v>4715.609167289134</v>
+        <v>4715.609167289133</v>
       </c>
       <c r="R29" t="n">
-        <v>4812.615767128013</v>
+        <v>4812.615767128012</v>
       </c>
       <c r="S29" t="n">
-        <v>4692.305782331641</v>
+        <v>4692.30578233164</v>
       </c>
       <c r="T29" t="n">
         <v>4484.403314706824</v>
@@ -6531,34 +6531,34 @@
         <v>342.5035539322394</v>
       </c>
       <c r="G30" t="n">
-        <v>205.9052016818157</v>
+        <v>205.9052016818156</v>
       </c>
       <c r="H30" t="n">
-        <v>113.1312674650428</v>
+        <v>113.1312674650427</v>
       </c>
       <c r="I30" t="n">
-        <v>96.25231534256025</v>
+        <v>96.25231534256024</v>
       </c>
       <c r="J30" t="n">
-        <v>292.9758476495718</v>
+        <v>168.1457226625671</v>
       </c>
       <c r="K30" t="n">
-        <v>522.5569039751557</v>
+        <v>630.9984161532764</v>
       </c>
       <c r="L30" t="n">
-        <v>839.1919243799211</v>
+        <v>947.6334365580418</v>
       </c>
       <c r="M30" t="n">
-        <v>1228.046926655477</v>
+        <v>1336.488438833597</v>
       </c>
       <c r="N30" t="n">
-        <v>1641.602408682842</v>
+        <v>1849.578923541333</v>
       </c>
       <c r="O30" t="n">
-        <v>1997.705084917706</v>
+        <v>2205.681599776197</v>
       </c>
       <c r="P30" t="n">
-        <v>2264.17581091941</v>
+        <v>2472.1523257779</v>
       </c>
       <c r="Q30" t="n">
         <v>2600.361752854265</v>
@@ -6595,40 +6595,40 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>562.2397368791038</v>
+        <v>415.3051376828029</v>
       </c>
       <c r="C31" t="n">
-        <v>562.239736879104</v>
+        <v>246.368954754896</v>
       </c>
       <c r="D31" t="n">
-        <v>412.1230974667683</v>
+        <v>96.25231534256024</v>
       </c>
       <c r="E31" t="n">
-        <v>412.1230974667683</v>
+        <v>96.25231534256024</v>
       </c>
       <c r="F31" t="n">
-        <v>412.1230974667683</v>
+        <v>96.25231534256024</v>
       </c>
       <c r="G31" t="n">
-        <v>244.2230333976947</v>
+        <v>96.25231534256024</v>
       </c>
       <c r="H31" t="n">
-        <v>96.25231534256025</v>
+        <v>96.25231534256024</v>
       </c>
       <c r="I31" t="n">
-        <v>96.25231534256025</v>
+        <v>96.25231534256024</v>
       </c>
       <c r="J31" t="n">
         <v>127.7084527208552</v>
       </c>
       <c r="K31" t="n">
-        <v>309.2373860905589</v>
+        <v>309.2373860905588</v>
       </c>
       <c r="L31" t="n">
         <v>597.0583571824202</v>
       </c>
       <c r="M31" t="n">
-        <v>910.9143388153279</v>
+        <v>910.9143388153278</v>
       </c>
       <c r="N31" t="n">
         <v>1222.74214312947</v>
@@ -6643,28 +6643,28 @@
         <v>1765.40156103574</v>
       </c>
       <c r="R31" t="n">
-        <v>1765.40156103574</v>
+        <v>1666.703040729649</v>
       </c>
       <c r="S31" t="n">
-        <v>1765.40156103574</v>
+        <v>1471.580020104199</v>
       </c>
       <c r="T31" t="n">
-        <v>1765.40156103574</v>
+        <v>1248.970705595702</v>
       </c>
       <c r="U31" t="n">
-        <v>1476.287936300813</v>
+        <v>959.8570808607751</v>
       </c>
       <c r="V31" t="n">
-        <v>1476.287936300813</v>
+        <v>959.8570808607751</v>
       </c>
       <c r="W31" t="n">
-        <v>1186.870766263853</v>
+        <v>817.7461816565727</v>
       </c>
       <c r="X31" t="n">
-        <v>958.8812153658353</v>
+        <v>817.7461816565727</v>
       </c>
       <c r="Y31" t="n">
-        <v>738.0886362223051</v>
+        <v>596.9536025130426</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6674,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2396.801190285673</v>
+        <v>2396.801190285672</v>
       </c>
       <c r="C32" t="n">
-        <v>2027.838673345261</v>
+        <v>2027.83867334526</v>
       </c>
       <c r="D32" t="n">
-        <v>1669.572974738511</v>
+        <v>1669.572974738509</v>
       </c>
       <c r="E32" t="n">
-        <v>1283.784722140266</v>
+        <v>1283.784722140265</v>
       </c>
       <c r="F32" t="n">
-        <v>872.7988173506586</v>
+        <v>872.7988173506576</v>
       </c>
       <c r="G32" t="n">
-        <v>457.2866824420198</v>
+        <v>457.2866824420187</v>
       </c>
       <c r="H32" t="n">
-        <v>155.2001605676188</v>
+        <v>155.2001605676178</v>
       </c>
       <c r="I32" t="n">
-        <v>96.25231534256025</v>
+        <v>96.25231534256024</v>
       </c>
       <c r="J32" t="n">
         <v>248.5563745505176</v>
       </c>
       <c r="K32" t="n">
-        <v>836.5005018636493</v>
+        <v>527.5591967947767</v>
       </c>
       <c r="L32" t="n">
-        <v>1633.014538237702</v>
+        <v>1324.073233168829</v>
       </c>
       <c r="M32" t="n">
-        <v>2535.896421001141</v>
+        <v>2226.955115932268</v>
       </c>
       <c r="N32" t="n">
-        <v>3438.755879015826</v>
+        <v>2909.983317172751</v>
       </c>
       <c r="O32" t="n">
-        <v>4246.112825308429</v>
+        <v>3717.340263465354</v>
       </c>
       <c r="P32" t="n">
-        <v>4578.918196108756</v>
+        <v>4368.726355355449</v>
       </c>
       <c r="Q32" t="n">
-        <v>4780.668422963387</v>
+        <v>4780.668422963386</v>
       </c>
       <c r="R32" t="n">
-        <v>4812.615767128013</v>
+        <v>4812.615767128012</v>
       </c>
       <c r="S32" t="n">
-        <v>4692.305782331642</v>
+        <v>4692.305782331641</v>
       </c>
       <c r="T32" t="n">
-        <v>4484.403314706826</v>
+        <v>4484.403314706825</v>
       </c>
       <c r="U32" t="n">
-        <v>4230.837663200371</v>
+        <v>4230.83766320037</v>
       </c>
       <c r="V32" t="n">
-        <v>3899.7747758568</v>
+        <v>3899.774775856799</v>
       </c>
       <c r="W32" t="n">
-        <v>3547.006120586686</v>
+        <v>3547.006120586685</v>
       </c>
       <c r="X32" t="n">
-        <v>3173.540362325607</v>
+        <v>3173.540362325605</v>
       </c>
       <c r="Y32" t="n">
-        <v>2783.401030349795</v>
+        <v>2783.401030349793</v>
       </c>
     </row>
     <row r="33">
@@ -6768,34 +6768,34 @@
         <v>342.5035539322394</v>
       </c>
       <c r="G33" t="n">
-        <v>205.9052016818157</v>
+        <v>205.9052016818156</v>
       </c>
       <c r="H33" t="n">
-        <v>113.1312674650428</v>
+        <v>113.1312674650427</v>
       </c>
       <c r="I33" t="n">
-        <v>96.25231534256025</v>
+        <v>96.25231534256024</v>
       </c>
       <c r="J33" t="n">
-        <v>292.9758476495718</v>
+        <v>168.1457226625671</v>
       </c>
       <c r="K33" t="n">
-        <v>522.5569039751557</v>
+        <v>369.1778315108236</v>
       </c>
       <c r="L33" t="n">
-        <v>839.1919243799211</v>
+        <v>685.812851915589</v>
       </c>
       <c r="M33" t="n">
-        <v>1228.046926655477</v>
+        <v>1436.023441513967</v>
       </c>
       <c r="N33" t="n">
-        <v>1641.602408682842</v>
+        <v>1849.578923541333</v>
       </c>
       <c r="O33" t="n">
-        <v>1997.705084917706</v>
+        <v>2205.681599776197</v>
       </c>
       <c r="P33" t="n">
-        <v>2264.17581091941</v>
+        <v>2472.1523257779</v>
       </c>
       <c r="Q33" t="n">
         <v>2600.361752854265</v>
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>279.7571543567515</v>
+        <v>279.7571543568463</v>
       </c>
       <c r="C34" t="n">
-        <v>279.7571543567515</v>
+        <v>221.3870216262273</v>
       </c>
       <c r="D34" t="n">
-        <v>279.7571543567515</v>
+        <v>96.25231534256024</v>
       </c>
       <c r="E34" t="n">
-        <v>156.8259939030211</v>
+        <v>96.25231534256024</v>
       </c>
       <c r="F34" t="n">
-        <v>156.8259939030211</v>
+        <v>96.25231534256024</v>
       </c>
       <c r="G34" t="n">
-        <v>156.8259939030211</v>
+        <v>96.25231534256024</v>
       </c>
       <c r="H34" t="n">
-        <v>96.25231534256025</v>
+        <v>96.25231534256024</v>
       </c>
       <c r="I34" t="n">
-        <v>96.25231534256025</v>
+        <v>96.25231534256024</v>
       </c>
       <c r="J34" t="n">
-        <v>152.1932453802575</v>
+        <v>152.1932453802634</v>
       </c>
       <c r="K34" t="n">
-        <v>358.2069714093634</v>
+        <v>358.2069714093751</v>
       </c>
       <c r="L34" t="n">
-        <v>670.5127351606271</v>
+        <v>670.5127351606446</v>
       </c>
       <c r="M34" t="n">
-        <v>1008.853509452937</v>
+        <v>1008.85350945296</v>
       </c>
       <c r="N34" t="n">
-        <v>1345.166106426481</v>
+        <v>1345.166106426511</v>
       </c>
       <c r="O34" t="n">
-        <v>1641.658051648161</v>
+        <v>1641.658051648196</v>
       </c>
       <c r="P34" t="n">
-        <v>1875.371271783373</v>
+        <v>1875.371271783414</v>
       </c>
       <c r="Q34" t="n">
-        <v>1961.279902310958</v>
+        <v>1961.279902311005</v>
       </c>
       <c r="R34" t="n">
-        <v>1961.279902310958</v>
+        <v>1961.279902311005</v>
       </c>
       <c r="S34" t="n">
-        <v>1791.138814814171</v>
+        <v>1791.138814814224</v>
       </c>
       <c r="T34" t="n">
-        <v>1593.511433434337</v>
+        <v>1593.511433434396</v>
       </c>
       <c r="U34" t="n">
-        <v>1329.379741828073</v>
+        <v>1329.379741828138</v>
       </c>
       <c r="V34" t="n">
-        <v>1099.677186750849</v>
+        <v>1099.677186750919</v>
       </c>
       <c r="W34" t="n">
-        <v>835.2419498425508</v>
+        <v>835.2419498426275</v>
       </c>
       <c r="X34" t="n">
-        <v>632.2343320731961</v>
+        <v>632.2343320732787</v>
       </c>
       <c r="Y34" t="n">
-        <v>436.4236860583286</v>
+        <v>436.4236860584173</v>
       </c>
     </row>
     <row r="35">
@@ -6920,19 +6920,19 @@
         <v>1370.465721337564</v>
       </c>
       <c r="E35" t="n">
-        <v>1041.047681880268</v>
+        <v>1041.047681880267</v>
       </c>
       <c r="F35" t="n">
-        <v>686.4319902316076</v>
+        <v>686.4319902316072</v>
       </c>
       <c r="G35" t="n">
-        <v>327.2900684639162</v>
+        <v>327.2900684639158</v>
       </c>
       <c r="H35" t="n">
-        <v>81.5737597304629</v>
+        <v>81.57375973046297</v>
       </c>
       <c r="I35" t="n">
-        <v>78.99612764635182</v>
+        <v>78.99612764635184</v>
       </c>
       <c r="J35" t="n">
         <v>231.3001868543092</v>
@@ -6941,25 +6941,25 @@
         <v>831.2069675440214</v>
       </c>
       <c r="L35" t="n">
-        <v>1627.721003918074</v>
+        <v>1592.215731035303</v>
       </c>
       <c r="M35" t="n">
-        <v>2085.584488523609</v>
+        <v>2050.079215640838</v>
       </c>
       <c r="N35" t="n">
-        <v>2555.47049137043</v>
+        <v>2952.938673655523</v>
       </c>
       <c r="O35" t="n">
-        <v>3064.72271940824</v>
+        <v>3383.303440498009</v>
       </c>
       <c r="P35" t="n">
-        <v>3716.108811298335</v>
+        <v>3716.108811298336</v>
       </c>
       <c r="Q35" t="n">
-        <v>3917.859038152965</v>
+        <v>3917.859038152966</v>
       </c>
       <c r="R35" t="n">
-        <v>3949.806382317591</v>
+        <v>3949.806382317592</v>
       </c>
       <c r="S35" t="n">
         <v>3885.866610662168</v>
@@ -6968,13 +6968,13 @@
         <v>3734.334356178299</v>
       </c>
       <c r="U35" t="n">
-        <v>3537.138917812792</v>
+        <v>3537.138917812793</v>
       </c>
       <c r="V35" t="n">
         <v>3262.446243610169</v>
       </c>
       <c r="W35" t="n">
-        <v>2966.047801481002</v>
+        <v>2966.047801481003</v>
       </c>
       <c r="X35" t="n">
         <v>2648.95225636087</v>
@@ -6999,40 +6999,40 @@
         <v>631.0193792146015</v>
       </c>
       <c r="E36" t="n">
-        <v>471.7819242091459</v>
+        <v>471.781924209146</v>
       </c>
       <c r="F36" t="n">
-        <v>325.2473662360309</v>
+        <v>325.247366236031</v>
       </c>
       <c r="G36" t="n">
-        <v>188.6490139856072</v>
+        <v>188.6490139856073</v>
       </c>
       <c r="H36" t="n">
-        <v>95.87507976883433</v>
+        <v>95.87507976883434</v>
       </c>
       <c r="I36" t="n">
-        <v>78.99612764635182</v>
+        <v>78.99612764635184</v>
       </c>
       <c r="J36" t="n">
-        <v>275.7196599533635</v>
+        <v>150.8895349663587</v>
       </c>
       <c r="K36" t="n">
-        <v>476.75176880162</v>
+        <v>351.9216438146152</v>
       </c>
       <c r="L36" t="n">
-        <v>793.3867892063854</v>
+        <v>1029.912251542204</v>
       </c>
       <c r="M36" t="n">
-        <v>1182.241791481941</v>
+        <v>1418.767253817759</v>
       </c>
       <c r="N36" t="n">
-        <v>1595.797273509306</v>
+        <v>1832.322735845124</v>
       </c>
       <c r="O36" t="n">
-        <v>1951.89994974417</v>
+        <v>2188.425412079989</v>
       </c>
       <c r="P36" t="n">
-        <v>2246.919623223202</v>
+        <v>2454.896138081692</v>
       </c>
       <c r="Q36" t="n">
         <v>2583.105565158056</v>
@@ -7069,28 +7069,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>717.3881255140008</v>
+        <v>717.3881255140002</v>
       </c>
       <c r="C37" t="n">
-        <v>604.8221557270414</v>
+        <v>604.8221557270407</v>
       </c>
       <c r="D37" t="n">
-        <v>511.0757294556532</v>
+        <v>511.0757294556524</v>
       </c>
       <c r="E37" t="n">
-        <v>419.5328490142076</v>
+        <v>419.5328490142068</v>
       </c>
       <c r="F37" t="n">
-        <v>329.0131146572447</v>
+        <v>329.0131146572438</v>
       </c>
       <c r="G37" t="n">
-        <v>217.4832637291185</v>
+        <v>217.4832637291176</v>
       </c>
       <c r="H37" t="n">
-        <v>125.8827588149317</v>
+        <v>125.8827588149306</v>
       </c>
       <c r="I37" t="n">
-        <v>78.99612764635182</v>
+        <v>78.99612764635184</v>
       </c>
       <c r="J37" t="n">
         <v>165.7007109240894</v>
@@ -7099,16 +7099,16 @@
         <v>402.4780901932356</v>
       </c>
       <c r="L37" t="n">
-        <v>745.5475071845397</v>
+        <v>745.5475071845394</v>
       </c>
       <c r="M37" t="n">
         <v>1114.65193471689</v>
       </c>
       <c r="N37" t="n">
-        <v>1481.728184930475</v>
+        <v>1481.728184930474</v>
       </c>
       <c r="O37" t="n">
-        <v>1808.983783392195</v>
+        <v>1808.983783392194</v>
       </c>
       <c r="P37" t="n">
         <v>2073.460656767447</v>
@@ -7120,25 +7120,25 @@
         <v>2147.804633369929</v>
       </c>
       <c r="S37" t="n">
-        <v>2009.051825885427</v>
+        <v>2009.051825885426</v>
       </c>
       <c r="T37" t="n">
-        <v>1842.812724517878</v>
+        <v>1842.812724517877</v>
       </c>
       <c r="U37" t="n">
-        <v>1610.069312923898</v>
+        <v>1610.069312923897</v>
       </c>
       <c r="V37" t="n">
-        <v>1411.755037858959</v>
+        <v>1411.755037858958</v>
       </c>
       <c r="W37" t="n">
-        <v>1178.708080962946</v>
+        <v>1178.708080962944</v>
       </c>
       <c r="X37" t="n">
-        <v>1007.088743205876</v>
+        <v>1007.088743205874</v>
       </c>
       <c r="Y37" t="n">
-        <v>842.666377203293</v>
+        <v>842.6663772032924</v>
       </c>
     </row>
     <row r="38">
@@ -7175,25 +7175,25 @@
         <v>398.7058358746623</v>
       </c>
       <c r="K38" t="n">
-        <v>783.6567516712121</v>
+        <v>677.7086581189213</v>
       </c>
       <c r="L38" t="n">
-        <v>1580.170788045265</v>
+        <v>1060.738092088028</v>
       </c>
       <c r="M38" t="n">
-        <v>2483.052670808704</v>
+        <v>1963.619974851467</v>
       </c>
       <c r="N38" t="n">
-        <v>2952.938673655524</v>
+        <v>2866.479432866152</v>
       </c>
       <c r="O38" t="n">
-        <v>3383.303440498009</v>
+        <v>3296.844199708637</v>
       </c>
       <c r="P38" t="n">
-        <v>3716.108811298337</v>
+        <v>3629.649570508965</v>
       </c>
       <c r="Q38" t="n">
-        <v>3917.859038152967</v>
+        <v>3852.799782478714</v>
       </c>
       <c r="R38" t="n">
         <v>3949.806382317593</v>
@@ -7251,25 +7251,25 @@
         <v>78.99612764635185</v>
       </c>
       <c r="J39" t="n">
-        <v>275.7196599533635</v>
+        <v>150.8895349663587</v>
       </c>
       <c r="K39" t="n">
-        <v>476.75176880162</v>
+        <v>351.9216438146152</v>
       </c>
       <c r="L39" t="n">
-        <v>793.3867892063854</v>
+        <v>668.5566642193807</v>
       </c>
       <c r="M39" t="n">
-        <v>1182.241791481941</v>
+        <v>1057.411666494936</v>
       </c>
       <c r="N39" t="n">
-        <v>1595.797273509306</v>
+        <v>1832.322735845124</v>
       </c>
       <c r="O39" t="n">
-        <v>1951.89994974417</v>
+        <v>2188.425412079989</v>
       </c>
       <c r="P39" t="n">
-        <v>2246.919623223202</v>
+        <v>2454.896138081692</v>
       </c>
       <c r="Q39" t="n">
         <v>2583.105565158056</v>
@@ -7306,22 +7306,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>717.3881255140002</v>
+        <v>717.3881255139997</v>
       </c>
       <c r="C40" t="n">
-        <v>604.8221557270407</v>
+        <v>604.8221557270402</v>
       </c>
       <c r="D40" t="n">
-        <v>511.0757294556524</v>
+        <v>511.075729455652</v>
       </c>
       <c r="E40" t="n">
-        <v>419.5328490142068</v>
+        <v>419.5328490142063</v>
       </c>
       <c r="F40" t="n">
-        <v>329.0131146572438</v>
+        <v>329.0131146572434</v>
       </c>
       <c r="G40" t="n">
-        <v>217.4832637291177</v>
+        <v>217.4832637291172</v>
       </c>
       <c r="H40" t="n">
         <v>125.8827588149306</v>
@@ -7330,13 +7330,13 @@
         <v>78.99612764635185</v>
       </c>
       <c r="J40" t="n">
-        <v>165.7007109240894</v>
+        <v>165.7007109240892</v>
       </c>
       <c r="K40" t="n">
-        <v>402.4780901932356</v>
+        <v>402.4780901932354</v>
       </c>
       <c r="L40" t="n">
-        <v>745.5475071845397</v>
+        <v>745.5475071845394</v>
       </c>
       <c r="M40" t="n">
         <v>1114.65193471689</v>
@@ -7345,7 +7345,7 @@
         <v>1481.728184930475</v>
       </c>
       <c r="O40" t="n">
-        <v>1808.983783392195</v>
+        <v>1808.983783392194</v>
       </c>
       <c r="P40" t="n">
         <v>2073.460656767447</v>
@@ -7357,25 +7357,25 @@
         <v>2147.804633369929</v>
       </c>
       <c r="S40" t="n">
-        <v>2009.051825885427</v>
+        <v>2009.051825885426</v>
       </c>
       <c r="T40" t="n">
         <v>1842.812724517877</v>
       </c>
       <c r="U40" t="n">
-        <v>1610.069312923898</v>
+        <v>1610.069312923897</v>
       </c>
       <c r="V40" t="n">
         <v>1411.755037858958</v>
       </c>
       <c r="W40" t="n">
-        <v>1178.708080962945</v>
+        <v>1178.708080962944</v>
       </c>
       <c r="X40" t="n">
         <v>1007.088743205875</v>
       </c>
       <c r="Y40" t="n">
-        <v>842.6663772032924</v>
+        <v>842.666377203292</v>
       </c>
     </row>
     <row r="41">
@@ -7385,25 +7385,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1984.953510602832</v>
+        <v>1984.953510602831</v>
       </c>
       <c r="C41" t="n">
-        <v>1672.361206803368</v>
+        <v>1672.361206803366</v>
       </c>
       <c r="D41" t="n">
-        <v>1370.465721337565</v>
+        <v>1370.465721337564</v>
       </c>
       <c r="E41" t="n">
-        <v>1041.047681880268</v>
+        <v>1041.047681880267</v>
       </c>
       <c r="F41" t="n">
-        <v>686.4319902316079</v>
+        <v>686.4319902316065</v>
       </c>
       <c r="G41" t="n">
-        <v>327.2900684639174</v>
+        <v>327.2900684639165</v>
       </c>
       <c r="H41" t="n">
-        <v>81.57375973046294</v>
+        <v>81.57375973046297</v>
       </c>
       <c r="I41" t="n">
         <v>78.99612764635184</v>
@@ -7412,49 +7412,49 @@
         <v>231.3001868543092</v>
       </c>
       <c r="K41" t="n">
-        <v>510.3030090985683</v>
+        <v>831.2069675440214</v>
       </c>
       <c r="L41" t="n">
-        <v>893.3324430676748</v>
+        <v>1627.721003918074</v>
       </c>
       <c r="M41" t="n">
-        <v>1796.214325831114</v>
+        <v>2164.471949718935</v>
       </c>
       <c r="N41" t="n">
-        <v>2699.073783845799</v>
+        <v>2634.357952565756</v>
       </c>
       <c r="O41" t="n">
-        <v>3129.438550688284</v>
+        <v>3064.722719408241</v>
       </c>
       <c r="P41" t="n">
-        <v>3651.049555624083</v>
+        <v>3716.108811298336</v>
       </c>
       <c r="Q41" t="n">
-        <v>3852.799782478714</v>
+        <v>3917.859038152966</v>
       </c>
       <c r="R41" t="n">
         <v>3949.806382317592</v>
       </c>
       <c r="S41" t="n">
-        <v>3885.866610662169</v>
+        <v>3885.866610662168</v>
       </c>
       <c r="T41" t="n">
         <v>3734.334356178299</v>
       </c>
       <c r="U41" t="n">
-        <v>3537.138917812793</v>
+        <v>3537.138917812792</v>
       </c>
       <c r="V41" t="n">
-        <v>3262.44624361017</v>
+        <v>3262.446243610168</v>
       </c>
       <c r="W41" t="n">
-        <v>2966.047801481003</v>
+        <v>2966.047801481002</v>
       </c>
       <c r="X41" t="n">
-        <v>2648.952256360871</v>
+        <v>2648.952256360869</v>
       </c>
       <c r="Y41" t="n">
-        <v>2315.183137526006</v>
+        <v>2315.183137526005</v>
       </c>
     </row>
     <row r="42">
@@ -7488,25 +7488,25 @@
         <v>78.99612764635184</v>
       </c>
       <c r="J42" t="n">
-        <v>275.7196599533635</v>
+        <v>150.8895349663587</v>
       </c>
       <c r="K42" t="n">
-        <v>476.75176880162</v>
+        <v>613.742228457068</v>
       </c>
       <c r="L42" t="n">
-        <v>793.3867892063854</v>
+        <v>930.3772488618334</v>
       </c>
       <c r="M42" t="n">
-        <v>1182.241791481941</v>
+        <v>1319.232251137389</v>
       </c>
       <c r="N42" t="n">
-        <v>1595.797273509306</v>
+        <v>1732.787733164754</v>
       </c>
       <c r="O42" t="n">
-        <v>1951.89994974417</v>
+        <v>2088.890409399618</v>
       </c>
       <c r="P42" t="n">
-        <v>2246.919623223202</v>
+        <v>2355.361135401322</v>
       </c>
       <c r="Q42" t="n">
         <v>2583.105565158056</v>
@@ -7543,16 +7543,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>717.3881255140001</v>
+        <v>717.3881255140002</v>
       </c>
       <c r="C43" t="n">
-        <v>604.8221557270406</v>
+        <v>604.8221557270407</v>
       </c>
       <c r="D43" t="n">
-        <v>511.0757294556523</v>
+        <v>511.0757294556524</v>
       </c>
       <c r="E43" t="n">
-        <v>419.5328490142067</v>
+        <v>419.5328490142068</v>
       </c>
       <c r="F43" t="n">
         <v>329.0131146572438</v>
@@ -7561,7 +7561,7 @@
         <v>217.4832637291177</v>
       </c>
       <c r="H43" t="n">
-        <v>125.8827588149305</v>
+        <v>125.8827588149306</v>
       </c>
       <c r="I43" t="n">
         <v>78.99612764635184</v>
@@ -7573,7 +7573,7 @@
         <v>402.4780901932356</v>
       </c>
       <c r="L43" t="n">
-        <v>745.5475071845397</v>
+        <v>745.5475071845394</v>
       </c>
       <c r="M43" t="n">
         <v>1114.65193471689</v>
@@ -7582,7 +7582,7 @@
         <v>1481.728184930475</v>
       </c>
       <c r="O43" t="n">
-        <v>1808.983783392194</v>
+        <v>1808.983783392195</v>
       </c>
       <c r="P43" t="n">
         <v>2073.460656767447</v>
@@ -7594,25 +7594,25 @@
         <v>2147.804633369929</v>
       </c>
       <c r="S43" t="n">
-        <v>2009.051825885426</v>
+        <v>2009.051825885427</v>
       </c>
       <c r="T43" t="n">
-        <v>1842.812724517876</v>
+        <v>1842.812724517877</v>
       </c>
       <c r="U43" t="n">
-        <v>1610.069312923897</v>
+        <v>1610.069312923898</v>
       </c>
       <c r="V43" t="n">
         <v>1411.755037858958</v>
       </c>
       <c r="W43" t="n">
-        <v>1178.708080962944</v>
+        <v>1178.708080962945</v>
       </c>
       <c r="X43" t="n">
         <v>1007.088743205875</v>
       </c>
       <c r="Y43" t="n">
-        <v>842.6663772032923</v>
+        <v>842.6663772032924</v>
       </c>
     </row>
     <row r="44">
@@ -7631,46 +7631,46 @@
         <v>1370.465721337564</v>
       </c>
       <c r="E44" t="n">
-        <v>1041.047681880268</v>
+        <v>1041.047681880267</v>
       </c>
       <c r="F44" t="n">
-        <v>686.4319902316081</v>
+        <v>686.4319902316072</v>
       </c>
       <c r="G44" t="n">
-        <v>327.2900684639167</v>
+        <v>327.2900684639158</v>
       </c>
       <c r="H44" t="n">
-        <v>81.57375973046298</v>
+        <v>81.573759730463</v>
       </c>
       <c r="I44" t="n">
-        <v>78.99612764635184</v>
+        <v>78.99612764635185</v>
       </c>
       <c r="J44" t="n">
         <v>231.3001868543092</v>
       </c>
       <c r="K44" t="n">
-        <v>510.3030090985683</v>
+        <v>831.2069675440214</v>
       </c>
       <c r="L44" t="n">
-        <v>1306.817045472621</v>
+        <v>1214.236401513128</v>
       </c>
       <c r="M44" t="n">
-        <v>2209.69892823606</v>
+        <v>1672.099886118663</v>
       </c>
       <c r="N44" t="n">
-        <v>2679.584931082881</v>
+        <v>2574.959344133348</v>
       </c>
       <c r="O44" t="n">
-        <v>3383.303440498009</v>
+        <v>3382.316290425951</v>
       </c>
       <c r="P44" t="n">
-        <v>3716.108811298336</v>
+        <v>3715.121661226278</v>
       </c>
       <c r="Q44" t="n">
         <v>3917.859038152967</v>
       </c>
       <c r="R44" t="n">
-        <v>3949.806382317592</v>
+        <v>3949.806382317593</v>
       </c>
       <c r="S44" t="n">
         <v>3885.866610662169</v>
@@ -7679,10 +7679,10 @@
         <v>3734.334356178299</v>
       </c>
       <c r="U44" t="n">
-        <v>3537.138917812793</v>
+        <v>3537.138917812792</v>
       </c>
       <c r="V44" t="n">
-        <v>3262.446243610169</v>
+        <v>3262.446243610168</v>
       </c>
       <c r="W44" t="n">
         <v>2966.047801481002</v>
@@ -7719,34 +7719,34 @@
         <v>188.6490139856073</v>
       </c>
       <c r="H45" t="n">
-        <v>95.87507976883434</v>
+        <v>95.87507976883435</v>
       </c>
       <c r="I45" t="n">
-        <v>78.99612764635184</v>
+        <v>78.99612764635185</v>
       </c>
       <c r="J45" t="n">
-        <v>275.7196599533635</v>
+        <v>150.8895349663587</v>
       </c>
       <c r="K45" t="n">
-        <v>505.3007162789476</v>
+        <v>613.742228457068</v>
       </c>
       <c r="L45" t="n">
-        <v>821.935736683713</v>
+        <v>930.3772488618334</v>
       </c>
       <c r="M45" t="n">
-        <v>1210.790738959269</v>
+        <v>1319.232251137389</v>
       </c>
       <c r="N45" t="n">
-        <v>1624.346220986634</v>
+        <v>1801.713364123424</v>
       </c>
       <c r="O45" t="n">
-        <v>1980.448897221498</v>
+        <v>2157.816040358288</v>
       </c>
       <c r="P45" t="n">
-        <v>2246.919623223202</v>
+        <v>2424.286766359992</v>
       </c>
       <c r="Q45" t="n">
-        <v>2583.105565158056</v>
+        <v>2552.496193436356</v>
       </c>
       <c r="R45" t="n">
         <v>2583.105565158056</v>
@@ -7780,37 +7780,37 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>717.3881255139993</v>
+        <v>717.388125514</v>
       </c>
       <c r="C46" t="n">
-        <v>604.8221557270398</v>
+        <v>604.8221557270405</v>
       </c>
       <c r="D46" t="n">
-        <v>511.0757294556515</v>
+        <v>511.0757294556522</v>
       </c>
       <c r="E46" t="n">
-        <v>419.5328490142058</v>
+        <v>419.5328490142065</v>
       </c>
       <c r="F46" t="n">
-        <v>329.0131146572437</v>
+        <v>329.0131146572436</v>
       </c>
       <c r="G46" t="n">
-        <v>217.4832637291175</v>
+        <v>217.4832637291174</v>
       </c>
       <c r="H46" t="n">
-        <v>125.8827588149306</v>
+        <v>125.8827588149304</v>
       </c>
       <c r="I46" t="n">
-        <v>78.99612764635184</v>
+        <v>78.99612764635185</v>
       </c>
       <c r="J46" t="n">
-        <v>165.7007109240894</v>
+        <v>165.7007109240897</v>
       </c>
       <c r="K46" t="n">
-        <v>402.4780901932356</v>
+        <v>402.4780901932359</v>
       </c>
       <c r="L46" t="n">
-        <v>745.5475071845397</v>
+        <v>745.5475071845399</v>
       </c>
       <c r="M46" t="n">
         <v>1114.65193471689</v>
@@ -7831,7 +7831,7 @@
         <v>2147.804633369929</v>
       </c>
       <c r="S46" t="n">
-        <v>2009.051825885426</v>
+        <v>2009.051825885427</v>
       </c>
       <c r="T46" t="n">
         <v>1842.812724517877</v>
@@ -7846,10 +7846,10 @@
         <v>1178.708080962945</v>
       </c>
       <c r="X46" t="n">
-        <v>1007.088743205874</v>
+        <v>1007.088743205875</v>
       </c>
       <c r="Y46" t="n">
-        <v>842.6663772032915</v>
+        <v>842.6663772032922</v>
       </c>
     </row>
   </sheetData>
@@ -8061,19 +8061,19 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>243.2069195535496</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>383.1483227996774</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N3" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O3" t="n">
-        <v>383.6105333221035</v>
+        <v>312.5030352242461</v>
       </c>
       <c r="P3" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
         <v>139.9817740860215</v>
@@ -8301,13 +8301,13 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>368.5691090902119</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N6" t="n">
-        <v>131.3417120833333</v>
+        <v>357.7767872515269</v>
       </c>
       <c r="O6" t="n">
-        <v>383.6105333221035</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P6" t="n">
         <v>318.4627686399372</v>
@@ -8538,19 +8538,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>383.1483227996774</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N9" t="n">
-        <v>186.8580120236956</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O9" t="n">
-        <v>383.6105333221035</v>
+        <v>369.031319612638</v>
       </c>
       <c r="P9" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8687,16 +8687,16 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>161.7453391004544</v>
       </c>
       <c r="L11" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M11" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
         <v>437.3469244119842</v>
@@ -8705,10 +8705,10 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q11" t="n">
-        <v>77.24888926693697</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R11" t="n">
         <v>65.71641987298243</v>
@@ -8766,10 +8766,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>28.83732068416907</v>
+        <v>154.9283560245779</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -8924,31 +8924,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K14" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>417.6612145504504</v>
+        <v>348.3115330304635</v>
       </c>
       <c r="M14" t="n">
-        <v>274.946850941275</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O14" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P14" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
         <v>212.3149906599047</v>
       </c>
       <c r="R14" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9003,7 +9003,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -9015,19 +9015,19 @@
         <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>334.0870864657802</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>28.83732068416919</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>14.60311251667372</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9167,19 +9167,19 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L17" t="n">
-        <v>417.6612145504504</v>
+        <v>127.5463157583904</v>
       </c>
       <c r="M17" t="n">
-        <v>274.946850941275</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O17" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P17" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q17" t="n">
         <v>212.3149906599047</v>
@@ -9240,7 +9240,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -9255,13 +9255,13 @@
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>28.83732068416901</v>
+        <v>365.0056437604272</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>14.60311251667372</v>
@@ -9404,10 +9404,10 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L20" t="n">
-        <v>405.5777262912782</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M20" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
         <v>437.3469244119842</v>
@@ -9416,13 +9416,13 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>49.9149171891959</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9477,7 +9477,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -9486,7 +9486,7 @@
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>365.0056437604271</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
@@ -9495,10 +9495,10 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>28.83732068416919</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>14.60311251667372</v>
@@ -9641,13 +9641,13 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L23" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>274.946850941275</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>308.8109518718737</v>
       </c>
       <c r="O23" t="n">
         <v>380.8001812627454</v>
@@ -9659,7 +9659,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9714,7 +9714,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -9723,7 +9723,7 @@
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>365.0056437604271</v>
       </c>
       <c r="N24" t="n">
         <v>0</v>
@@ -9732,10 +9732,10 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>28.83732068416919</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>14.60311251667372</v>
@@ -9872,10 +9872,10 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>34.03051377910575</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L26" t="n">
         <v>417.6612145504504</v>
@@ -9887,16 +9887,16 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O26" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q26" t="n">
-        <v>212.3149906599047</v>
+        <v>46.91798483208825</v>
       </c>
       <c r="R26" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9951,13 +9951,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>28.83732068416907</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>15.62431782584332</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
@@ -9969,13 +9969,13 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>14.60311251667372</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10115,19 +10115,19 @@
         <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M29" t="n">
-        <v>449.5135334928325</v>
+        <v>429.9956483403652</v>
       </c>
       <c r="N29" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P29" t="n">
-        <v>282.5951131574823</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q29" t="n">
         <v>212.3149906599047</v>
@@ -10188,10 +10188,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>28.83732068416907</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -10200,7 +10200,7 @@
         <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>100.5404067478486</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
@@ -10209,7 +10209,7 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>14.60311251667372</v>
@@ -10349,7 +10349,7 @@
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>312.0619243119926</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
         <v>417.6612145504504</v>
@@ -10358,16 +10358,16 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N32" t="n">
-        <v>437.3469244119842</v>
+        <v>215.2951498925882</v>
       </c>
       <c r="O32" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
         <v>0</v>
@@ -10425,16 +10425,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>28.83732068416907</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>365.0056437604271</v>
       </c>
       <c r="N33" t="n">
         <v>0</v>
@@ -10446,7 +10446,7 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>14.60311251667372</v>
@@ -10589,19 +10589,19 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L35" t="n">
-        <v>417.6612145504504</v>
+        <v>381.7973025476516</v>
       </c>
       <c r="M35" t="n">
         <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O35" t="n">
-        <v>79.68430423770189</v>
+        <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="n">
         <v>0</v>
@@ -10662,13 +10662,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>365.0056437604273</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
@@ -10680,10 +10680,10 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>28.83732068416941</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>14.60311251667372</v>
@@ -10823,16 +10823,16 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K38" t="n">
-        <v>107.0182763154452</v>
+        <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M38" t="n">
         <v>449.5135334928325</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O38" t="n">
         <v>0</v>
@@ -10841,10 +10841,10 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>21.61614658092864</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10899,7 +10899,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -10911,16 +10911,16 @@
         <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>365.0056437604273</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>28.83732068416941</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>14.60311251667372</v>
@@ -11060,28 +11060,28 @@
         <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
-        <v>449.5135334928325</v>
+        <v>79.6843042377036</v>
       </c>
       <c r="N41" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
         <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>190.7127617530028</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q41" t="n">
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11136,10 +11136,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -11154,10 +11154,10 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>28.83732068416941</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>210.0772877358491</v>
+        <v>100.5404067478488</v>
       </c>
       <c r="R42" t="n">
         <v>14.60311251667372</v>
@@ -11297,25 +11297,25 @@
         <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L44" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O44" t="n">
-        <v>276.1148914875185</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P44" t="n">
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>0.9971212849078768</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -11373,10 +11373,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>28.8373206841693</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -11385,7 +11385,7 @@
         <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>69.62184945320189</v>
       </c>
       <c r="O45" t="n">
         <v>0</v>
@@ -11394,10 +11394,10 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>14.60311251667372</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23264,7 +23264,7 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>1.080024958355352e-12</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -23416,25 +23416,25 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>158.7688453639578</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>166.2210634283829</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>146.4910108745831</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>102.2242758664309</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23470,16 +23470,16 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2224884875777</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>83.88482859224212</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -23650,7 +23650,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -23659,16 +23659,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>166.2210634283829</v>
       </c>
       <c r="H16" t="n">
-        <v>28.17463103640561</v>
+        <v>146.4910108745831</v>
       </c>
       <c r="I16" t="n">
         <v>102.2242758664309</v>
@@ -23698,7 +23698,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>56.18358801085054</v>
       </c>
       <c r="S16" t="n">
         <v>193.1717904191953</v>
@@ -23713,7 +23713,7 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -23887,28 +23887,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>146.4339626465691</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.2210634283828</v>
       </c>
       <c r="H19" t="n">
         <v>146.4910108745831</v>
       </c>
       <c r="I19" t="n">
-        <v>102.2242758664309</v>
+        <v>102.2242758664308</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,7 +23935,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>97.7115351030304</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23950,13 +23950,13 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>126.5265805299883</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>82.10855733141717</v>
       </c>
     </row>
     <row r="20">
@@ -24124,28 +24124,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>166.2210634283829</v>
+        <v>166.2210634283828</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>146.4910108745831</v>
       </c>
       <c r="I22" t="n">
-        <v>102.2242758664309</v>
+        <v>102.2242758664308</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,25 +24172,25 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>97.7115351030304</v>
+        <v>97.71153510303034</v>
       </c>
       <c r="S22" t="n">
-        <v>193.1717904191953</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>146.8619414997193</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>197.5215185341146</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24361,7 +24361,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -24373,7 +24373,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>166.2210634283828</v>
@@ -24382,7 +24382,7 @@
         <v>146.4910108745831</v>
       </c>
       <c r="I25" t="n">
-        <v>102.2242758664308</v>
+        <v>102.2242758664309</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,10 +24409,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>97.7115351030304</v>
+        <v>89.23355936835968</v>
       </c>
       <c r="S25" t="n">
-        <v>175.6957454584183</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24430,7 +24430,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24601,19 +24601,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>8.71005530055487</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.2210634283829</v>
       </c>
       <c r="H28" t="n">
         <v>146.4910108745831</v>
@@ -24646,10 +24646,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>97.7115351030304</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>193.1717904191953</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24661,13 +24661,13 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>78.77583813372382</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24835,10 +24835,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>5.741569832168011</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -24850,10 +24850,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.2210634283829</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>146.4910108745831</v>
       </c>
       <c r="I31" t="n">
         <v>102.2242758664309</v>
@@ -24883,13 +24883,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>97.7115351030304</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>193.1717904191953</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>220.3832213634118</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -24898,10 +24898,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>145.8332081244306</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -25075,25 +25075,25 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>142.5147073012518</v>
+        <v>84.7282758979331</v>
       </c>
       <c r="D34" t="n">
-        <v>123.8833592208363</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>121.7018488491872</v>
       </c>
       <c r="F34" t="n">
-        <v>120.6889342255552</v>
+        <v>120.6889342255493</v>
       </c>
       <c r="G34" t="n">
-        <v>141.4889496310068</v>
+        <v>141.4889496310009</v>
       </c>
       <c r="H34" t="n">
-        <v>61.79095530234986</v>
+        <v>121.7588970772011</v>
       </c>
       <c r="I34" t="n">
-        <v>77.49216206905487</v>
+        <v>77.49216206904894</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,7 +25120,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>72.97942130565437</v>
+        <v>72.97942130564844</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25330,7 +25330,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>-1.236344360222574e-12</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -26032,7 +26032,7 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>8.242295734817162e-13</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>972185.4792343739</v>
+        <v>972185.4792343738</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>972185.4792343739</v>
+        <v>972185.4792343738</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>972185.479234374</v>
+        <v>972185.4792343738</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>972185.4792343739</v>
+        <v>972185.479234374</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>972185.479234374</v>
+        <v>972185.4792343738</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>972185.479234374</v>
+        <v>972185.4792343739</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>972185.479234374</v>
+        <v>972185.4792343739</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>988813.1405114718</v>
+        <v>988813.1405114754</v>
       </c>
     </row>
     <row r="13">
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>472099.0176719629</v>
+        <v>472099.017671963</v>
       </c>
       <c r="C2" t="n">
-        <v>472099.0176719629</v>
+        <v>472099.017671963</v>
       </c>
       <c r="D2" t="n">
-        <v>472099.0176719629</v>
+        <v>472099.0176719631</v>
       </c>
       <c r="E2" t="n">
-        <v>453738.5058980318</v>
+        <v>453738.5058980316</v>
       </c>
       <c r="F2" t="n">
         <v>453738.5058980318</v>
       </c>
       <c r="G2" t="n">
+        <v>453738.5058980317</v>
+      </c>
+      <c r="H2" t="n">
+        <v>453738.5058980317</v>
+      </c>
+      <c r="I2" t="n">
+        <v>453738.5058980315</v>
+      </c>
+      <c r="J2" t="n">
+        <v>453738.5058980318</v>
+      </c>
+      <c r="K2" t="n">
         <v>453738.5058980316</v>
       </c>
-      <c r="H2" t="n">
-        <v>453738.5058980316</v>
-      </c>
-      <c r="I2" t="n">
-        <v>453738.5058980316</v>
-      </c>
-      <c r="J2" t="n">
-        <v>453738.5058980316</v>
-      </c>
-      <c r="K2" t="n">
-        <v>453738.5058980315</v>
-      </c>
       <c r="L2" t="n">
-        <v>461875.4465229951</v>
+        <v>461875.4465229961</v>
       </c>
       <c r="M2" t="n">
-        <v>472099.0176719632</v>
+        <v>472099.0176719633</v>
       </c>
       <c r="N2" t="n">
-        <v>472099.0176719633</v>
+        <v>472099.0176719634</v>
       </c>
       <c r="O2" t="n">
         <v>472099.0176719633</v>
       </c>
       <c r="P2" t="n">
-        <v>472099.0176719632</v>
+        <v>472099.0176719633</v>
       </c>
     </row>
     <row r="3">
@@ -26378,28 +26378,28 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>4.802132025361061e-11</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>4.80213202536106e-11</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>63059.94259910618</v>
+        <v>63059.94259910611</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>1.170374162029475e-10</v>
       </c>
       <c r="L3" t="n">
-        <v>19785.69103790083</v>
+        <v>19785.69103790557</v>
       </c>
       <c r="M3" t="n">
-        <v>210874.6803490297</v>
+        <v>210874.6803490249</v>
       </c>
       <c r="N3" t="n">
-        <v>1.11379904410569e-10</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26424,40 +26424,40 @@
         <v>354433.2672769093</v>
       </c>
       <c r="E4" t="n">
-        <v>45771.09472565656</v>
+        <v>45771.09472565654</v>
       </c>
       <c r="F4" t="n">
-        <v>45771.09472565656</v>
+        <v>45771.09472565653</v>
       </c>
       <c r="G4" t="n">
-        <v>45771.09472565656</v>
+        <v>45771.09472565659</v>
       </c>
       <c r="H4" t="n">
-        <v>45771.09472565656</v>
+        <v>45771.09472565661</v>
       </c>
       <c r="I4" t="n">
-        <v>45771.0947256566</v>
+        <v>45771.09472565657</v>
       </c>
       <c r="J4" t="n">
-        <v>45771.09472565656</v>
+        <v>45771.09472565664</v>
       </c>
       <c r="K4" t="n">
-        <v>45771.09472565656</v>
+        <v>45771.09472565659</v>
       </c>
       <c r="L4" t="n">
-        <v>53909.19270292495</v>
+        <v>53909.1927029269</v>
       </c>
       <c r="M4" t="n">
-        <v>86767.32092341201</v>
+        <v>86767.32092341197</v>
       </c>
       <c r="N4" t="n">
+        <v>86767.32092341199</v>
+      </c>
+      <c r="O4" t="n">
+        <v>86767.32092341199</v>
+      </c>
+      <c r="P4" t="n">
         <v>86767.320923412</v>
-      </c>
-      <c r="O4" t="n">
-        <v>86767.32092341204</v>
-      </c>
-      <c r="P4" t="n">
-        <v>86767.32092341199</v>
       </c>
     </row>
     <row r="5">
@@ -26476,10 +26476,10 @@
         <v>48281.26876376167</v>
       </c>
       <c r="E5" t="n">
-        <v>94548.43424048129</v>
+        <v>94548.43424048128</v>
       </c>
       <c r="F5" t="n">
-        <v>94548.43424048129</v>
+        <v>94548.43424048128</v>
       </c>
       <c r="G5" t="n">
         <v>94548.43424048129</v>
@@ -26491,22 +26491,22 @@
         <v>94548.43424048129</v>
       </c>
       <c r="J5" t="n">
-        <v>94548.43424048129</v>
+        <v>94548.43424048126</v>
       </c>
       <c r="K5" t="n">
         <v>94548.43424048129</v>
       </c>
       <c r="L5" t="n">
-        <v>96627.6383153129</v>
+        <v>96627.63831531338</v>
       </c>
       <c r="M5" t="n">
-        <v>86125.32916542373</v>
+        <v>86125.32916542374</v>
       </c>
       <c r="N5" t="n">
         <v>86125.32916542375</v>
       </c>
       <c r="O5" t="n">
-        <v>86125.32916542375</v>
+        <v>86125.32916542374</v>
       </c>
       <c r="P5" t="n">
         <v>86125.32916542375</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-11384.94990025588</v>
+        <v>-11384.94990025565</v>
       </c>
       <c r="C6" t="n">
-        <v>69384.48163129191</v>
+        <v>69384.48163129203</v>
       </c>
       <c r="D6" t="n">
-        <v>69384.48163129191</v>
+        <v>69384.48163129209</v>
       </c>
       <c r="E6" t="n">
-        <v>-762393.8640458509</v>
+        <v>-762473.6923579116</v>
       </c>
       <c r="F6" t="n">
-        <v>313418.9769318939</v>
+        <v>313339.1486198333</v>
       </c>
       <c r="G6" t="n">
-        <v>313418.9769318938</v>
+        <v>313339.1486198332</v>
       </c>
       <c r="H6" t="n">
-        <v>313418.9769318937</v>
+        <v>313339.1486198332</v>
       </c>
       <c r="I6" t="n">
-        <v>313418.9769318937</v>
+        <v>313339.1486198331</v>
       </c>
       <c r="J6" t="n">
-        <v>250359.0343327876</v>
+        <v>250279.2060207271</v>
       </c>
       <c r="K6" t="n">
-        <v>313418.9769318936</v>
+        <v>313339.1486198331</v>
       </c>
       <c r="L6" t="n">
-        <v>291552.9244668564</v>
+        <v>291508.4741575069</v>
       </c>
       <c r="M6" t="n">
-        <v>88331.68723409777</v>
+        <v>88331.68723410265</v>
       </c>
       <c r="N6" t="n">
-        <v>299206.3675831274</v>
+        <v>299206.3675831276</v>
       </c>
       <c r="O6" t="n">
-        <v>299206.3675831275</v>
+        <v>299206.3675831276</v>
       </c>
       <c r="P6" t="n">
-        <v>299206.3675831275</v>
+        <v>299206.3675831276</v>
       </c>
     </row>
   </sheetData>
@@ -26698,31 +26698,31 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>6.002665031701327e-14</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>6.002665031701327e-14</v>
       </c>
       <c r="I2" t="n">
-        <v>6.002665031701325e-14</v>
+        <v>6.002665031701327e-14</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>6.002665031701327e-14</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>6.002665031701327e-14</v>
       </c>
       <c r="L2" t="n">
-        <v>24.73211379737603</v>
+        <v>24.73211379738196</v>
       </c>
       <c r="M2" t="n">
-        <v>55.80651100953802</v>
+        <v>55.80651100953796</v>
       </c>
       <c r="N2" t="n">
         <v>55.80651100953796</v>
       </c>
       <c r="O2" t="n">
-        <v>55.80651100953799</v>
+        <v>55.80651100953796</v>
       </c>
       <c r="P2" t="n">
         <v>55.80651100953796</v>
@@ -26811,7 +26811,7 @@
         <v>1203.153941782003</v>
       </c>
       <c r="J4" t="n">
-        <v>1203.153941782003</v>
+        <v>1203.153941782002</v>
       </c>
       <c r="K4" t="n">
         <v>1203.153941782003</v>
@@ -26820,16 +26820,16 @@
         <v>1203.153941782003</v>
       </c>
       <c r="M4" t="n">
-        <v>987.4515955793977</v>
+        <v>987.4515955793979</v>
       </c>
       <c r="N4" t="n">
         <v>987.4515955793981</v>
       </c>
       <c r="O4" t="n">
-        <v>987.451595579398</v>
+        <v>987.4515955793979</v>
       </c>
       <c r="P4" t="n">
-        <v>987.451595579398</v>
+        <v>987.4515955793981</v>
       </c>
     </row>
   </sheetData>
@@ -26920,13 +26920,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>6.002665031701327e-14</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>6.002665031701325e-14</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -26935,10 +26935,10 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>24.73211379737603</v>
+        <v>24.73211379738196</v>
       </c>
       <c r="M2" t="n">
-        <v>31.07439721216199</v>
+        <v>31.074397212156</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>962.1396529043441</v>
+        <v>962.1396529043438</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,19 +27033,19 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>241.0142888776591</v>
+        <v>241.0142888776586</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>746.4373067017386</v>
+        <v>746.4373067017389</v>
       </c>
       <c r="N4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27157,13 +27157,13 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>6.002665031701327e-14</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>6.002665031701325e-14</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>962.1396529043441</v>
+        <v>962.1396529043438</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27379,7 +27379,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -27388,16 +27388,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>165.8617568640524</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>194.4189411335972</v>
+        <v>353.793365595639</v>
       </c>
       <c r="H2" t="n">
         <v>339.4748021157671</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27421,22 +27421,22 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R2" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T2" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -27458,19 +27458,19 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>117.6088337347102</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H3" t="n">
         <v>112.2354442364965</v>
@@ -27503,28 +27503,28 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T3" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>91.40449755320245</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -27534,7 +27534,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>46.64501259656927</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -27591,7 +27591,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U4" t="n">
-        <v>286.3190293564909</v>
+        <v>153.1320617711229</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -27622,19 +27622,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F5" t="n">
-        <v>348.4813272950487</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>174.288448637476</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I5" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27661,16 +27661,16 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S5" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>24.39083643944002</v>
       </c>
       <c r="U5" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -27692,31 +27692,31 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>112.2354442364965</v>
+        <v>84.09114173527217</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -27743,10 +27743,10 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S6" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>91.78421390056737</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
@@ -27758,10 +27758,10 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -27798,7 +27798,7 @@
         <v>93.35918011667277</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -27813,7 +27813,7 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q7" t="n">
         <v>86.16204325169439</v>
@@ -27828,7 +27828,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U7" t="n">
-        <v>286.3190293564909</v>
+        <v>153.1320617711229</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -27837,7 +27837,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>117.5136203646585</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27853,7 +27853,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>137.860031792408</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -27865,7 +27865,7 @@
         <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>381.7025041237114</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H8" t="n">
         <v>339.4748021157671</v>
@@ -27874,7 +27874,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -27898,10 +27898,10 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S8" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>223.0958495641314</v>
@@ -27916,10 +27916,10 @@
         <v>108.226679839754</v>
       </c>
       <c r="X8" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -27929,7 +27929,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>166.5331836498673</v>
+        <v>55.97041148230456</v>
       </c>
       <c r="C9" t="n">
         <v>172.7084989883157</v>
@@ -27938,7 +27938,7 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
         <v>145.0692123933839</v>
@@ -27947,13 +27947,13 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I9" t="n">
         <v>89.39663285141508</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -27983,19 +27983,19 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T9" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
         <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>93.86372088113228</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
         <v>205.6826957773044</v>
@@ -28035,7 +28035,7 @@
         <v>93.35918011667277</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -28050,7 +28050,7 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q10" t="n">
         <v>86.16204325169439</v>
@@ -28071,10 +28071,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X10" t="n">
-        <v>117.5136203646585</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -28561,28 +28561,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>6.002665031701327e-14</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>6.002665031701327e-14</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>6.002665031701327e-14</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>6.002665031701327e-14</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>6.002665031701327e-14</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>6.002665031701327e-14</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>6.002665031701327e-14</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>6.002665031701327e-14</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -28612,25 +28612,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>6.002665031701327e-14</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>6.002665031701327e-14</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>6.002665031701327e-14</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>6.002665031701327e-14</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>6.002665031701327e-14</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>6.002665031701327e-14</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>6.002665031701327e-14</v>
       </c>
     </row>
     <row r="18">
@@ -28798,28 +28798,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>6.002665031701327e-14</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>6.002665031701327e-14</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>6.002665031701327e-14</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>6.002665031701327e-14</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>6.002665031701327e-14</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>6.002665031701327e-14</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>6.002665031701327e-14</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>6.002665031701327e-14</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -28849,25 +28849,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>6.002665031701327e-14</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>6.002665031701327e-14</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>6.002665031701327e-14</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>6.002665031701327e-14</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>6.002665031701327e-14</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>6.002665031701327e-14</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>6.002665031701327e-14</v>
       </c>
     </row>
     <row r="21">
@@ -29035,28 +29035,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>6.002665031701325e-14</v>
+        <v>6.002665031701327e-14</v>
       </c>
       <c r="C23" t="n">
-        <v>6.002665031701325e-14</v>
+        <v>6.002665031701327e-14</v>
       </c>
       <c r="D23" t="n">
-        <v>6.002665031701325e-14</v>
+        <v>6.002665031701327e-14</v>
       </c>
       <c r="E23" t="n">
-        <v>6.002665031701325e-14</v>
+        <v>6.002665031701327e-14</v>
       </c>
       <c r="F23" t="n">
-        <v>6.002665031701325e-14</v>
+        <v>6.002665031701327e-14</v>
       </c>
       <c r="G23" t="n">
-        <v>6.002665031701325e-14</v>
+        <v>6.002665031701327e-14</v>
       </c>
       <c r="H23" t="n">
-        <v>6.002665031701325e-14</v>
+        <v>6.002665031701327e-14</v>
       </c>
       <c r="I23" t="n">
-        <v>6.002665031701325e-14</v>
+        <v>6.002665031701327e-14</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -29086,25 +29086,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>6.002665031701325e-14</v>
+        <v>6.002665031701327e-14</v>
       </c>
       <c r="T23" t="n">
-        <v>6.002665031701325e-14</v>
+        <v>6.002665031701327e-14</v>
       </c>
       <c r="U23" t="n">
-        <v>6.002665031701325e-14</v>
+        <v>6.002665031701327e-14</v>
       </c>
       <c r="V23" t="n">
-        <v>6.002665031701325e-14</v>
+        <v>6.002665031701327e-14</v>
       </c>
       <c r="W23" t="n">
-        <v>6.002665031701325e-14</v>
+        <v>6.002665031701327e-14</v>
       </c>
       <c r="X23" t="n">
-        <v>6.002665031701325e-14</v>
+        <v>6.002665031701327e-14</v>
       </c>
       <c r="Y23" t="n">
-        <v>6.002665031701325e-14</v>
+        <v>6.002665031701327e-14</v>
       </c>
     </row>
     <row r="24">
@@ -29278,7 +29278,7 @@
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>6.002665031701327e-14</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
@@ -29287,7 +29287,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>6.002665031701327e-14</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -29323,7 +29323,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>2.461092662997543e-12</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
@@ -29332,13 +29332,13 @@
         <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>6.002665031701327e-14</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>6.002665031701327e-14</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -29521,10 +29521,10 @@
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>1.009198058454785e-12</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>6.002665031701327e-14</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -29767,7 +29767,7 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>1.016076112136943e-12</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -29809,7 +29809,7 @@
         <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>24.73211379737603</v>
+        <v>24.73211379738196</v>
       </c>
       <c r="C34" t="n">
-        <v>24.73211379737603</v>
+        <v>24.73211379738196</v>
       </c>
       <c r="D34" t="n">
-        <v>24.73211379737603</v>
+        <v>24.73211379738196</v>
       </c>
       <c r="E34" t="n">
-        <v>24.73211379737603</v>
+        <v>24.73211379738196</v>
       </c>
       <c r="F34" t="n">
-        <v>24.73211379737603</v>
+        <v>24.73211379738196</v>
       </c>
       <c r="G34" t="n">
-        <v>24.73211379737603</v>
+        <v>24.73211379738196</v>
       </c>
       <c r="H34" t="n">
-        <v>24.73211379737603</v>
+        <v>24.73211379738196</v>
       </c>
       <c r="I34" t="n">
-        <v>24.73211379737603</v>
+        <v>24.73211379738196</v>
       </c>
       <c r="J34" t="n">
-        <v>24.73211379737603</v>
+        <v>24.73211379738196</v>
       </c>
       <c r="K34" t="n">
-        <v>24.73211379737603</v>
+        <v>24.73211379738196</v>
       </c>
       <c r="L34" t="n">
-        <v>24.73211379737603</v>
+        <v>24.73211379738196</v>
       </c>
       <c r="M34" t="n">
-        <v>24.73211379737603</v>
+        <v>24.73211379738196</v>
       </c>
       <c r="N34" t="n">
-        <v>24.73211379737603</v>
+        <v>24.73211379738196</v>
       </c>
       <c r="O34" t="n">
-        <v>24.73211379737603</v>
+        <v>24.73211379738196</v>
       </c>
       <c r="P34" t="n">
-        <v>24.73211379737603</v>
+        <v>24.73211379738196</v>
       </c>
       <c r="Q34" t="n">
-        <v>24.73211379737603</v>
+        <v>24.73211379738196</v>
       </c>
       <c r="R34" t="n">
-        <v>24.73211379737603</v>
+        <v>24.73211379738196</v>
       </c>
       <c r="S34" t="n">
-        <v>24.73211379737603</v>
+        <v>24.73211379738196</v>
       </c>
       <c r="T34" t="n">
-        <v>24.73211379737603</v>
+        <v>24.73211379738196</v>
       </c>
       <c r="U34" t="n">
-        <v>24.73211379737603</v>
+        <v>24.73211379738196</v>
       </c>
       <c r="V34" t="n">
-        <v>24.73211379737603</v>
+        <v>24.73211379738196</v>
       </c>
       <c r="W34" t="n">
-        <v>24.73211379737603</v>
+        <v>24.73211379738196</v>
       </c>
       <c r="X34" t="n">
-        <v>24.73211379737603</v>
+        <v>24.73211379738196</v>
       </c>
       <c r="Y34" t="n">
-        <v>24.73211379737603</v>
+        <v>24.73211379738196</v>
       </c>
     </row>
     <row r="35">
@@ -29983,28 +29983,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>55.80651100953802</v>
+        <v>55.80651100953796</v>
       </c>
       <c r="C35" t="n">
-        <v>55.80651100953802</v>
+        <v>55.80651100953796</v>
       </c>
       <c r="D35" t="n">
-        <v>55.80651100953802</v>
+        <v>55.80651100953796</v>
       </c>
       <c r="E35" t="n">
-        <v>55.80651100953802</v>
+        <v>55.80651100953796</v>
       </c>
       <c r="F35" t="n">
-        <v>55.80651100953802</v>
+        <v>55.80651100953796</v>
       </c>
       <c r="G35" t="n">
-        <v>55.80651100953802</v>
+        <v>55.80651100953796</v>
       </c>
       <c r="H35" t="n">
-        <v>55.80651100953802</v>
+        <v>55.80651100953796</v>
       </c>
       <c r="I35" t="n">
-        <v>55.80651100953802</v>
+        <v>55.80651100953796</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -30034,25 +30034,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>55.80651100953802</v>
+        <v>55.80651100953796</v>
       </c>
       <c r="T35" t="n">
-        <v>55.80651100953802</v>
+        <v>55.80651100953796</v>
       </c>
       <c r="U35" t="n">
-        <v>55.80651100953802</v>
+        <v>55.80651100953796</v>
       </c>
       <c r="V35" t="n">
-        <v>55.80651100953802</v>
+        <v>55.80651100953796</v>
       </c>
       <c r="W35" t="n">
-        <v>55.80651100953802</v>
+        <v>55.80651100953796</v>
       </c>
       <c r="X35" t="n">
-        <v>55.80651100953802</v>
+        <v>55.80651100953796</v>
       </c>
       <c r="Y35" t="n">
-        <v>55.80651100953802</v>
+        <v>55.80651100953796</v>
       </c>
     </row>
     <row r="36">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>55.80651100953802</v>
+        <v>55.80651100953796</v>
       </c>
       <c r="C37" t="n">
-        <v>55.80651100953802</v>
+        <v>55.80651100953796</v>
       </c>
       <c r="D37" t="n">
-        <v>55.80651100953802</v>
+        <v>55.80651100953796</v>
       </c>
       <c r="E37" t="n">
-        <v>55.80651100953802</v>
+        <v>55.80651100953796</v>
       </c>
       <c r="F37" t="n">
-        <v>55.80651100953802</v>
+        <v>55.80651100953796</v>
       </c>
       <c r="G37" t="n">
-        <v>55.80651100953802</v>
+        <v>55.80651100953796</v>
       </c>
       <c r="H37" t="n">
-        <v>55.80651100953802</v>
+        <v>55.80651100953796</v>
       </c>
       <c r="I37" t="n">
-        <v>55.80651100953802</v>
+        <v>55.80651100953796</v>
       </c>
       <c r="J37" t="n">
-        <v>55.80651100953802</v>
+        <v>55.80651100953796</v>
       </c>
       <c r="K37" t="n">
-        <v>55.80651100953802</v>
+        <v>55.80651100953796</v>
       </c>
       <c r="L37" t="n">
-        <v>55.80651100953802</v>
+        <v>55.80651100953796</v>
       </c>
       <c r="M37" t="n">
-        <v>55.80651100953802</v>
+        <v>55.80651100953796</v>
       </c>
       <c r="N37" t="n">
-        <v>55.80651100953802</v>
+        <v>55.80651100953796</v>
       </c>
       <c r="O37" t="n">
-        <v>55.80651100953802</v>
+        <v>55.80651100953796</v>
       </c>
       <c r="P37" t="n">
-        <v>55.80651100953802</v>
+        <v>55.80651100953796</v>
       </c>
       <c r="Q37" t="n">
-        <v>55.80651100953802</v>
+        <v>55.80651100953796</v>
       </c>
       <c r="R37" t="n">
-        <v>55.80651100953802</v>
+        <v>55.80651100953796</v>
       </c>
       <c r="S37" t="n">
-        <v>55.80651100953802</v>
+        <v>55.80651100953796</v>
       </c>
       <c r="T37" t="n">
-        <v>55.80651100953802</v>
+        <v>55.80651100953796</v>
       </c>
       <c r="U37" t="n">
-        <v>55.80651100953802</v>
+        <v>55.80651100953796</v>
       </c>
       <c r="V37" t="n">
-        <v>55.80651100953802</v>
+        <v>55.80651100953796</v>
       </c>
       <c r="W37" t="n">
-        <v>55.80651100953802</v>
+        <v>55.80651100953796</v>
       </c>
       <c r="X37" t="n">
-        <v>55.80651100953802</v>
+        <v>55.80651100953796</v>
       </c>
       <c r="Y37" t="n">
-        <v>55.80651100953802</v>
+        <v>55.80651100953796</v>
       </c>
     </row>
     <row r="38">
@@ -30457,28 +30457,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>55.80651100953799</v>
+        <v>55.80651100953796</v>
       </c>
       <c r="C41" t="n">
-        <v>55.80651100953799</v>
+        <v>55.80651100953796</v>
       </c>
       <c r="D41" t="n">
-        <v>55.80651100953799</v>
+        <v>55.80651100953796</v>
       </c>
       <c r="E41" t="n">
-        <v>55.80651100953799</v>
+        <v>55.80651100953796</v>
       </c>
       <c r="F41" t="n">
-        <v>55.80651100953799</v>
+        <v>55.80651100953796</v>
       </c>
       <c r="G41" t="n">
-        <v>55.80651100953799</v>
+        <v>55.80651100953796</v>
       </c>
       <c r="H41" t="n">
-        <v>55.80651100953799</v>
+        <v>55.80651100953796</v>
       </c>
       <c r="I41" t="n">
-        <v>55.80651100953799</v>
+        <v>55.80651100953796</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -30508,25 +30508,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>55.80651100953799</v>
+        <v>55.80651100953796</v>
       </c>
       <c r="T41" t="n">
-        <v>55.80651100953799</v>
+        <v>55.80651100953796</v>
       </c>
       <c r="U41" t="n">
-        <v>55.80651100953799</v>
+        <v>55.80651100953796</v>
       </c>
       <c r="V41" t="n">
-        <v>55.80651100953799</v>
+        <v>55.80651100953796</v>
       </c>
       <c r="W41" t="n">
-        <v>55.80651100953799</v>
+        <v>55.80651100953796</v>
       </c>
       <c r="X41" t="n">
-        <v>55.80651100953799</v>
+        <v>55.80651100953796</v>
       </c>
       <c r="Y41" t="n">
-        <v>55.80651100953799</v>
+        <v>55.80651100953796</v>
       </c>
     </row>
     <row r="42">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>55.80651100953799</v>
+        <v>55.80651100953796</v>
       </c>
       <c r="C43" t="n">
-        <v>55.80651100953799</v>
+        <v>55.80651100953796</v>
       </c>
       <c r="D43" t="n">
-        <v>55.80651100953799</v>
+        <v>55.80651100953796</v>
       </c>
       <c r="E43" t="n">
-        <v>55.80651100953799</v>
+        <v>55.80651100953796</v>
       </c>
       <c r="F43" t="n">
-        <v>55.80651100953799</v>
+        <v>55.80651100953796</v>
       </c>
       <c r="G43" t="n">
-        <v>55.80651100953799</v>
+        <v>55.80651100953796</v>
       </c>
       <c r="H43" t="n">
-        <v>55.80651100953799</v>
+        <v>55.80651100953796</v>
       </c>
       <c r="I43" t="n">
-        <v>55.80651100953799</v>
+        <v>55.80651100953796</v>
       </c>
       <c r="J43" t="n">
-        <v>55.80651100953799</v>
+        <v>55.80651100953796</v>
       </c>
       <c r="K43" t="n">
-        <v>55.80651100953799</v>
+        <v>55.80651100953796</v>
       </c>
       <c r="L43" t="n">
-        <v>55.80651100953799</v>
+        <v>55.80651100953796</v>
       </c>
       <c r="M43" t="n">
-        <v>55.80651100953799</v>
+        <v>55.80651100953796</v>
       </c>
       <c r="N43" t="n">
-        <v>55.80651100953799</v>
+        <v>55.80651100953796</v>
       </c>
       <c r="O43" t="n">
-        <v>55.80651100953799</v>
+        <v>55.80651100953796</v>
       </c>
       <c r="P43" t="n">
-        <v>55.80651100953799</v>
+        <v>55.80651100953796</v>
       </c>
       <c r="Q43" t="n">
-        <v>55.80651100953799</v>
+        <v>55.80651100953796</v>
       </c>
       <c r="R43" t="n">
-        <v>55.80651100953799</v>
+        <v>55.80651100953796</v>
       </c>
       <c r="S43" t="n">
-        <v>55.80651100953799</v>
+        <v>55.80651100953796</v>
       </c>
       <c r="T43" t="n">
-        <v>55.80651100953799</v>
+        <v>55.80651100953796</v>
       </c>
       <c r="U43" t="n">
-        <v>55.80651100953799</v>
+        <v>55.80651100953796</v>
       </c>
       <c r="V43" t="n">
-        <v>55.80651100953799</v>
+        <v>55.80651100953796</v>
       </c>
       <c r="W43" t="n">
-        <v>55.80651100953799</v>
+        <v>55.80651100953796</v>
       </c>
       <c r="X43" t="n">
-        <v>55.80651100953799</v>
+        <v>55.80651100953796</v>
       </c>
       <c r="Y43" t="n">
-        <v>55.80651100953799</v>
+        <v>55.80651100953796</v>
       </c>
     </row>
     <row r="44">
@@ -34781,19 +34781,19 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L3" t="n">
-        <v>104.6525397736754</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M3" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O3" t="n">
-        <v>241.0142888776591</v>
+        <v>169.9067907798016</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
@@ -35021,13 +35021,13 @@
         <v>232.285965523585</v>
       </c>
       <c r="M6" t="n">
+        <v>241.0142888776591</v>
+      </c>
+      <c r="N6" t="n">
         <v>226.4350751681936</v>
       </c>
-      <c r="N6" t="n">
-        <v>0</v>
-      </c>
       <c r="O6" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
         <v>184.4883612256069</v>
@@ -35258,19 +35258,19 @@
         <v>232.285965523585</v>
       </c>
       <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="N9" t="n">
-        <v>55.51629994036225</v>
-      </c>
       <c r="O9" t="n">
-        <v>241.0142888776591</v>
+        <v>226.4350751681936</v>
       </c>
       <c r="P9" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35407,16 +35407,16 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>322.9390992205156</v>
+        <v>153.8424840484418</v>
       </c>
       <c r="K11" t="n">
-        <v>281.8210325699586</v>
+        <v>443.566371670413</v>
       </c>
       <c r="L11" t="n">
         <v>804.5596327010632</v>
       </c>
       <c r="M11" t="n">
-        <v>912.0019017812516</v>
+        <v>462.4883682884191</v>
       </c>
       <c r="N11" t="n">
         <v>911.9792505198841</v>
@@ -35425,10 +35425,10 @@
         <v>815.512066962225</v>
       </c>
       <c r="P11" t="n">
-        <v>336.1670412124517</v>
+        <v>657.9657493839343</v>
       </c>
       <c r="Q11" t="n">
-        <v>281.0369972009071</v>
+        <v>416.1030985938748</v>
       </c>
       <c r="R11" t="n">
         <v>97.98646448371534</v>
@@ -35486,10 +35486,10 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>198.7106386939511</v>
+        <v>72.61960335354229</v>
       </c>
       <c r="K12" t="n">
-        <v>231.9000568945291</v>
+        <v>357.991092234938</v>
       </c>
       <c r="L12" t="n">
         <v>319.8333539442075</v>
@@ -35644,31 +35644,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>153.8424840484418</v>
+        <v>322.9390992205156</v>
       </c>
       <c r="K14" t="n">
-        <v>605.9664451411234</v>
+        <v>281.8210325699586</v>
       </c>
       <c r="L14" t="n">
-        <v>804.5596327010632</v>
+        <v>735.2099511810762</v>
       </c>
       <c r="M14" t="n">
-        <v>737.4352192296941</v>
+        <v>912.0019017812516</v>
       </c>
       <c r="N14" t="n">
-        <v>474.6323261078999</v>
+        <v>911.9792505198841</v>
       </c>
       <c r="O14" t="n">
         <v>815.512066962225</v>
       </c>
       <c r="P14" t="n">
-        <v>657.9657493839343</v>
+        <v>336.1670412124517</v>
       </c>
       <c r="Q14" t="n">
         <v>416.1030985938748</v>
       </c>
       <c r="R14" t="n">
-        <v>97.98646448371534</v>
+        <v>32.2700446107329</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,7 +35723,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>198.7106386939511</v>
+        <v>72.61960335354229</v>
       </c>
       <c r="K15" t="n">
         <v>203.0627362103601</v>
@@ -35735,19 +35735,19 @@
         <v>392.7828305813692</v>
       </c>
       <c r="N15" t="n">
-        <v>417.7328101286519</v>
+        <v>751.8198965944321</v>
       </c>
       <c r="O15" t="n">
         <v>359.6996729645094</v>
       </c>
       <c r="P15" t="n">
-        <v>297.9996701808392</v>
+        <v>269.1623494966701</v>
       </c>
       <c r="Q15" t="n">
-        <v>339.5817595301563</v>
+        <v>129.5044717943072</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>30.9185572946471</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35887,19 +35887,19 @@
         <v>605.9664451411234</v>
       </c>
       <c r="L17" t="n">
-        <v>804.5596327010632</v>
+        <v>514.4447339090032</v>
       </c>
       <c r="M17" t="n">
-        <v>737.4352192296941</v>
+        <v>912.0019017812516</v>
       </c>
       <c r="N17" t="n">
-        <v>474.6323261078999</v>
+        <v>911.9792505198841</v>
       </c>
       <c r="O17" t="n">
         <v>815.512066962225</v>
       </c>
       <c r="P17" t="n">
-        <v>657.9657493839343</v>
+        <v>336.1670412124517</v>
       </c>
       <c r="Q17" t="n">
         <v>416.1030985938748</v>
@@ -35960,7 +35960,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>198.7106386939511</v>
+        <v>72.61960335354229</v>
       </c>
       <c r="K18" t="n">
         <v>203.0627362103601</v>
@@ -35975,13 +35975,13 @@
         <v>417.7328101286519</v>
       </c>
       <c r="O18" t="n">
-        <v>388.5369936486784</v>
+        <v>724.7053167249366</v>
       </c>
       <c r="P18" t="n">
         <v>269.1623494966701</v>
       </c>
       <c r="Q18" t="n">
-        <v>339.5817595301563</v>
+        <v>129.5044717943072</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,7 +36039,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>31.77387613969192</v>
+        <v>31.77387613969198</v>
       </c>
       <c r="K19" t="n">
         <v>183.3625589592966</v>
@@ -36048,19 +36048,19 @@
         <v>290.7282536281429</v>
       </c>
       <c r="M19" t="n">
-        <v>317.0262440736441</v>
+        <v>317.0262440736442</v>
       </c>
       <c r="N19" t="n">
-        <v>314.977580115295</v>
+        <v>314.9775801152951</v>
       </c>
       <c r="O19" t="n">
-        <v>274.7546995578559</v>
+        <v>274.754699557856</v>
       </c>
       <c r="P19" t="n">
         <v>211.3418459351616</v>
       </c>
       <c r="Q19" t="n">
-        <v>62.04428067493224</v>
+        <v>62.0442806749323</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36124,10 +36124,10 @@
         <v>605.9664451411234</v>
       </c>
       <c r="L20" t="n">
-        <v>792.4761444418909</v>
+        <v>804.5596327010632</v>
       </c>
       <c r="M20" t="n">
-        <v>912.0019017812516</v>
+        <v>462.4883682884191</v>
       </c>
       <c r="N20" t="n">
         <v>911.9792505198841</v>
@@ -36136,13 +36136,13 @@
         <v>815.512066962225</v>
       </c>
       <c r="P20" t="n">
-        <v>336.1670412124517</v>
+        <v>657.9657493839343</v>
       </c>
       <c r="Q20" t="n">
-        <v>203.7881079339701</v>
+        <v>253.703025123166</v>
       </c>
       <c r="R20" t="n">
-        <v>32.2700446107329</v>
+        <v>97.98646448371534</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,7 +36197,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>198.7106386939511</v>
+        <v>72.61960335354229</v>
       </c>
       <c r="K21" t="n">
         <v>203.0627362103601</v>
@@ -36206,7 +36206,7 @@
         <v>319.8333539442075</v>
       </c>
       <c r="M21" t="n">
-        <v>392.7828305813692</v>
+        <v>757.7884743417962</v>
       </c>
       <c r="N21" t="n">
         <v>417.7328101286519</v>
@@ -36215,10 +36215,10 @@
         <v>359.6996729645094</v>
       </c>
       <c r="P21" t="n">
-        <v>297.9996701808392</v>
+        <v>269.1623494966701</v>
       </c>
       <c r="Q21" t="n">
-        <v>339.5817595301563</v>
+        <v>129.5044717943072</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,7 +36276,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>31.77387613969192</v>
+        <v>31.77387613969198</v>
       </c>
       <c r="K22" t="n">
         <v>183.3625589592966</v>
@@ -36285,19 +36285,19 @@
         <v>290.7282536281429</v>
       </c>
       <c r="M22" t="n">
-        <v>317.0262440736441</v>
+        <v>317.0262440736442</v>
       </c>
       <c r="N22" t="n">
-        <v>314.977580115295</v>
+        <v>314.9775801152951</v>
       </c>
       <c r="O22" t="n">
-        <v>274.7546995578559</v>
+        <v>274.754699557856</v>
       </c>
       <c r="P22" t="n">
         <v>211.3418459351616</v>
       </c>
       <c r="Q22" t="n">
-        <v>62.04428067493224</v>
+        <v>62.0442806749323</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36361,13 +36361,13 @@
         <v>605.9664451411234</v>
       </c>
       <c r="L23" t="n">
-        <v>804.5596327010632</v>
+        <v>386.8984181506127</v>
       </c>
       <c r="M23" t="n">
-        <v>737.4352192296941</v>
+        <v>912.0019017812516</v>
       </c>
       <c r="N23" t="n">
-        <v>474.6323261078999</v>
+        <v>783.4432779797736</v>
       </c>
       <c r="O23" t="n">
         <v>815.512066962225</v>
@@ -36379,7 +36379,7 @@
         <v>416.1030985938748</v>
       </c>
       <c r="R23" t="n">
-        <v>97.98646448371534</v>
+        <v>32.2700446107329</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,7 +36434,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>198.7106386939511</v>
+        <v>72.61960335354229</v>
       </c>
       <c r="K24" t="n">
         <v>203.0627362103601</v>
@@ -36443,7 +36443,7 @@
         <v>319.8333539442075</v>
       </c>
       <c r="M24" t="n">
-        <v>392.7828305813692</v>
+        <v>757.7884743417962</v>
       </c>
       <c r="N24" t="n">
         <v>417.7328101286519</v>
@@ -36452,10 +36452,10 @@
         <v>359.6996729645094</v>
       </c>
       <c r="P24" t="n">
-        <v>297.9996701808392</v>
+        <v>269.1623494966701</v>
       </c>
       <c r="Q24" t="n">
-        <v>339.5817595301563</v>
+        <v>129.5044717943072</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36519,16 +36519,16 @@
         <v>183.3625589592966</v>
       </c>
       <c r="L25" t="n">
-        <v>290.728253628143</v>
+        <v>290.7282536281429</v>
       </c>
       <c r="M25" t="n">
-        <v>317.0262440736441</v>
+        <v>317.0262440736442</v>
       </c>
       <c r="N25" t="n">
         <v>314.977580115295</v>
       </c>
       <c r="O25" t="n">
-        <v>274.754699557856</v>
+        <v>274.7546995578559</v>
       </c>
       <c r="P25" t="n">
         <v>211.3418459351617</v>
@@ -36592,10 +36592,10 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>187.8729978275476</v>
+        <v>153.8424840484418</v>
       </c>
       <c r="K26" t="n">
-        <v>281.8210325699586</v>
+        <v>605.9664451411234</v>
       </c>
       <c r="L26" t="n">
         <v>804.5596327010632</v>
@@ -36607,16 +36607,16 @@
         <v>911.9792505198841</v>
       </c>
       <c r="O26" t="n">
-        <v>815.512066962225</v>
+        <v>434.7118856994797</v>
       </c>
       <c r="P26" t="n">
-        <v>336.1670412124517</v>
+        <v>657.9657493839343</v>
       </c>
       <c r="Q26" t="n">
-        <v>416.1030985938748</v>
+        <v>250.7060927660584</v>
       </c>
       <c r="R26" t="n">
-        <v>97.98646448371534</v>
+        <v>32.2700446107329</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,13 +36671,13 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>198.7106386939511</v>
+        <v>72.61960335354229</v>
       </c>
       <c r="K27" t="n">
-        <v>231.9000568945291</v>
+        <v>203.0627362103601</v>
       </c>
       <c r="L27" t="n">
-        <v>319.8333539442075</v>
+        <v>335.4576717700509</v>
       </c>
       <c r="M27" t="n">
         <v>392.7828305813692</v>
@@ -36689,13 +36689,13 @@
         <v>359.6996729645094</v>
       </c>
       <c r="P27" t="n">
-        <v>269.1623494966701</v>
+        <v>587.6251181366072</v>
       </c>
       <c r="Q27" t="n">
-        <v>339.5817595301563</v>
+        <v>129.5044717943072</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>30.9185572946471</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36835,19 +36835,19 @@
         <v>281.8210325699586</v>
       </c>
       <c r="L29" t="n">
-        <v>386.8984181506127</v>
+        <v>804.5596327010632</v>
       </c>
       <c r="M29" t="n">
-        <v>912.0019017812516</v>
+        <v>892.4840166287843</v>
       </c>
       <c r="N29" t="n">
-        <v>911.9792505198841</v>
+        <v>474.6323261078999</v>
       </c>
       <c r="O29" t="n">
         <v>815.512066962225</v>
       </c>
       <c r="P29" t="n">
-        <v>618.762154369934</v>
+        <v>657.9657493839343</v>
       </c>
       <c r="Q29" t="n">
         <v>416.1030985938748</v>
@@ -36908,10 +36908,10 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>198.7106386939511</v>
+        <v>72.61960335354229</v>
       </c>
       <c r="K30" t="n">
-        <v>231.9000568945291</v>
+        <v>467.5279732229387</v>
       </c>
       <c r="L30" t="n">
         <v>319.8333539442075</v>
@@ -36920,7 +36920,7 @@
         <v>392.7828305813692</v>
       </c>
       <c r="N30" t="n">
-        <v>417.7328101286519</v>
+        <v>518.2732168765004</v>
       </c>
       <c r="O30" t="n">
         <v>359.6996729645094</v>
@@ -36929,7 +36929,7 @@
         <v>269.1623494966701</v>
       </c>
       <c r="Q30" t="n">
-        <v>339.5817595301563</v>
+        <v>129.5044717943072</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37069,7 +37069,7 @@
         <v>153.8424840484418</v>
       </c>
       <c r="K32" t="n">
-        <v>593.8829568819513</v>
+        <v>281.8210325699586</v>
       </c>
       <c r="L32" t="n">
         <v>804.5596327010632</v>
@@ -37078,16 +37078,16 @@
         <v>912.0019017812516</v>
       </c>
       <c r="N32" t="n">
-        <v>911.9792505198841</v>
+        <v>689.9274760004881</v>
       </c>
       <c r="O32" t="n">
         <v>815.512066962225</v>
       </c>
       <c r="P32" t="n">
-        <v>336.1670412124517</v>
+        <v>657.9657493839343</v>
       </c>
       <c r="Q32" t="n">
-        <v>203.7881079339701</v>
+        <v>416.1030985938748</v>
       </c>
       <c r="R32" t="n">
         <v>32.2700446107329</v>
@@ -37145,16 +37145,16 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>198.7106386939511</v>
+        <v>72.61960335354229</v>
       </c>
       <c r="K33" t="n">
-        <v>231.9000568945291</v>
+        <v>203.0627362103601</v>
       </c>
       <c r="L33" t="n">
         <v>319.8333539442075</v>
       </c>
       <c r="M33" t="n">
-        <v>392.7828305813692</v>
+        <v>757.7884743417962</v>
       </c>
       <c r="N33" t="n">
         <v>417.7328101286519</v>
@@ -37166,7 +37166,7 @@
         <v>269.1623494966701</v>
       </c>
       <c r="Q33" t="n">
-        <v>339.5817595301563</v>
+        <v>129.5044717943072</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37224,28 +37224,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>56.50598993706795</v>
+        <v>56.50598993707388</v>
       </c>
       <c r="K34" t="n">
-        <v>208.0946727566726</v>
+        <v>208.0946727566786</v>
       </c>
       <c r="L34" t="n">
-        <v>315.4603674255189</v>
+        <v>315.4603674255248</v>
       </c>
       <c r="M34" t="n">
-        <v>341.7583578710202</v>
+        <v>341.7583578710261</v>
       </c>
       <c r="N34" t="n">
-        <v>339.709693912671</v>
+        <v>339.709693912677</v>
       </c>
       <c r="O34" t="n">
-        <v>299.486813355232</v>
+        <v>299.4868133552379</v>
       </c>
       <c r="P34" t="n">
-        <v>236.0739597325376</v>
+        <v>236.0739597325436</v>
       </c>
       <c r="Q34" t="n">
-        <v>86.77639447230827</v>
+        <v>86.77639447231419</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37309,19 +37309,19 @@
         <v>605.9664451411234</v>
       </c>
       <c r="L35" t="n">
-        <v>804.5596327010632</v>
+        <v>768.6957206982643</v>
       </c>
       <c r="M35" t="n">
         <v>462.4883682884191</v>
       </c>
       <c r="N35" t="n">
-        <v>474.6323261078999</v>
+        <v>911.9792505198841</v>
       </c>
       <c r="O35" t="n">
-        <v>514.3961899371816</v>
+        <v>434.7118856994797</v>
       </c>
       <c r="P35" t="n">
-        <v>657.9657493839343</v>
+        <v>336.1670412124517</v>
       </c>
       <c r="Q35" t="n">
         <v>203.7881079339701</v>
@@ -37382,13 +37382,13 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>198.7106386939511</v>
+        <v>72.61960335354229</v>
       </c>
       <c r="K36" t="n">
         <v>203.0627362103601</v>
       </c>
       <c r="L36" t="n">
-        <v>319.8333539442075</v>
+        <v>684.8389977046348</v>
       </c>
       <c r="M36" t="n">
         <v>392.7828305813692</v>
@@ -37400,10 +37400,10 @@
         <v>359.6996729645094</v>
       </c>
       <c r="P36" t="n">
-        <v>297.9996701808395</v>
+        <v>269.1623494966701</v>
       </c>
       <c r="Q36" t="n">
-        <v>339.5817595301563</v>
+        <v>129.5044717943072</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37461,16 +37461,16 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>87.58038714922995</v>
+        <v>87.58038714922989</v>
       </c>
       <c r="K37" t="n">
-        <v>239.1690699688346</v>
+        <v>239.1690699688345</v>
       </c>
       <c r="L37" t="n">
-        <v>346.5347646376809</v>
+        <v>346.5347646376808</v>
       </c>
       <c r="M37" t="n">
-        <v>372.8327550831822</v>
+        <v>372.8327550831821</v>
       </c>
       <c r="N37" t="n">
         <v>370.784091124833</v>
@@ -37482,7 +37482,7 @@
         <v>267.1483569446996</v>
       </c>
       <c r="Q37" t="n">
-        <v>117.8507916844703</v>
+        <v>117.8507916844702</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37543,16 +37543,16 @@
         <v>322.9390992205156</v>
       </c>
       <c r="K38" t="n">
-        <v>388.8393088854039</v>
+        <v>281.8210325699586</v>
       </c>
       <c r="L38" t="n">
-        <v>804.5596327010632</v>
+        <v>386.8984181506127</v>
       </c>
       <c r="M38" t="n">
         <v>912.0019017812516</v>
       </c>
       <c r="N38" t="n">
-        <v>474.6323261078999</v>
+        <v>911.9792505198841</v>
       </c>
       <c r="O38" t="n">
         <v>434.7118856994797</v>
@@ -37561,10 +37561,10 @@
         <v>336.1670412124517</v>
       </c>
       <c r="Q38" t="n">
-        <v>203.7881079339701</v>
+        <v>225.4042545148988</v>
       </c>
       <c r="R38" t="n">
-        <v>32.2700446107329</v>
+        <v>97.98646448371534</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,7 +37619,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>198.7106386939511</v>
+        <v>72.61960335354229</v>
       </c>
       <c r="K39" t="n">
         <v>203.0627362103601</v>
@@ -37631,16 +37631,16 @@
         <v>392.7828305813692</v>
       </c>
       <c r="N39" t="n">
-        <v>417.7328101286519</v>
+        <v>782.7384538890792</v>
       </c>
       <c r="O39" t="n">
         <v>359.6996729645094</v>
       </c>
       <c r="P39" t="n">
-        <v>297.9996701808395</v>
+        <v>269.1623494966701</v>
       </c>
       <c r="Q39" t="n">
-        <v>339.5817595301563</v>
+        <v>129.5044717943072</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37780,28 +37780,28 @@
         <v>153.8424840484418</v>
       </c>
       <c r="K41" t="n">
-        <v>281.8210325699586</v>
+        <v>605.9664451411234</v>
       </c>
       <c r="L41" t="n">
-        <v>386.8984181506127</v>
+        <v>804.5596327010632</v>
       </c>
       <c r="M41" t="n">
-        <v>912.0019017812516</v>
+        <v>542.1726725261227</v>
       </c>
       <c r="N41" t="n">
-        <v>911.9792505198841</v>
+        <v>474.6323261078999</v>
       </c>
       <c r="O41" t="n">
         <v>434.7118856994797</v>
       </c>
       <c r="P41" t="n">
-        <v>526.8798029654545</v>
+        <v>657.9657493839343</v>
       </c>
       <c r="Q41" t="n">
         <v>203.7881079339701</v>
       </c>
       <c r="R41" t="n">
-        <v>97.98646448371534</v>
+        <v>32.2700446107329</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,10 +37856,10 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>198.7106386939511</v>
+        <v>72.61960335354229</v>
       </c>
       <c r="K42" t="n">
-        <v>203.0627362103601</v>
+        <v>467.5279732229387</v>
       </c>
       <c r="L42" t="n">
         <v>319.8333539442075</v>
@@ -37874,10 +37874,10 @@
         <v>359.6996729645094</v>
       </c>
       <c r="P42" t="n">
-        <v>297.9996701808395</v>
+        <v>269.1623494966701</v>
       </c>
       <c r="Q42" t="n">
-        <v>339.5817595301563</v>
+        <v>230.044878542156</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37935,10 +37935,10 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>87.58038714922992</v>
+        <v>87.58038714922989</v>
       </c>
       <c r="K43" t="n">
-        <v>239.1690699688346</v>
+        <v>239.1690699688345</v>
       </c>
       <c r="L43" t="n">
         <v>346.5347646376808</v>
@@ -38017,25 +38017,25 @@
         <v>153.8424840484418</v>
       </c>
       <c r="K44" t="n">
-        <v>281.8210325699586</v>
+        <v>605.9664451411234</v>
       </c>
       <c r="L44" t="n">
-        <v>804.5596327010632</v>
+        <v>386.8984181506127</v>
       </c>
       <c r="M44" t="n">
-        <v>912.0019017812516</v>
+        <v>462.4883682884191</v>
       </c>
       <c r="N44" t="n">
-        <v>474.6323261078999</v>
+        <v>911.9792505198841</v>
       </c>
       <c r="O44" t="n">
-        <v>710.8267771869982</v>
+        <v>815.512066962225</v>
       </c>
       <c r="P44" t="n">
         <v>336.1670412124517</v>
       </c>
       <c r="Q44" t="n">
-        <v>203.7881079339701</v>
+        <v>204.785229218878</v>
       </c>
       <c r="R44" t="n">
         <v>32.2700446107329</v>
@@ -38093,10 +38093,10 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>198.7106386939511</v>
+        <v>72.61960335354229</v>
       </c>
       <c r="K45" t="n">
-        <v>231.9000568945294</v>
+        <v>467.5279732229387</v>
       </c>
       <c r="L45" t="n">
         <v>319.8333539442075</v>
@@ -38105,7 +38105,7 @@
         <v>392.7828305813692</v>
       </c>
       <c r="N45" t="n">
-        <v>417.7328101286519</v>
+        <v>487.3546595818538</v>
       </c>
       <c r="O45" t="n">
         <v>359.6996729645094</v>
@@ -38114,10 +38114,10 @@
         <v>269.1623494966701</v>
       </c>
       <c r="Q45" t="n">
-        <v>339.5817595301563</v>
+        <v>129.5044717943072</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>30.9185572946471</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
